--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EA0965-2001-5F4C-854D-B0DCBFD867C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CCC7D9-1B51-1A4E-A39D-11EFB48CAED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29040" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35320" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Syngas!$A$1:$S$274</definedName>
+  </definedNames>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="180">
   <si>
     <t>Activity</t>
   </si>
@@ -71,9 +74,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>Originally in cubic meter. Composition: 96% CH4, 4% CO2, Density of gas: .708 kg/Nm3</t>
-  </si>
-  <si>
     <t>Exchanges</t>
   </si>
   <si>
@@ -572,7 +572,10 @@
     <t>spent solvent mixture</t>
   </si>
   <si>
-    <t>carbon dioxide, captured from the atmosphere</t>
+    <t>carbon dioxide, captured from atmosphere, with a solvent-based direct air capture system, 1MtCO2</t>
+  </si>
+  <si>
+    <t>Originally in cubic meter. Composition: 96% CH4, 4% CO2, Density of synthetic methane: .717 kg/Nm3, LHV ~47.5 MJ/kg. Using the "CO2 methanation - sewage sludge - PSA - worst - BFB_FB" configuration. Source: Life cycle assessment of power-to-gas with biogas as the carbon source. Xiaojin Zhang, Julia Witte, Tilman Schildhauer and Christian Bauer. https://doi.org/10.1039/C9SE00986H</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -644,7 +647,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -961,24 +963,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="K198" sqref="K198"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="79.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -989,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1013,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1029,20 +1032,20 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1051,36 +1054,36 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
       </c>
       <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s">
         <v>11</v>
       </c>
       <c r="L10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1089,27 +1092,27 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11">
         <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12">
         <v>5.81</v>
@@ -1118,13 +1121,13 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
         <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1136,13 +1139,13 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1150,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1174,7 +1177,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1190,20 +1193,20 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
         <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -1212,36 +1215,36 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
         <v>5</v>
       </c>
       <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
         <v>17</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>18</v>
       </c>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
       <c r="J21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s">
         <v>11</v>
       </c>
       <c r="L21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1250,27 +1253,27 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22">
         <v>100</v>
       </c>
       <c r="K22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23">
         <v>5.81</v>
@@ -1279,13 +1282,13 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
         <v>24</v>
-      </c>
-      <c r="F23" t="s">
-        <v>25</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1297,13 +1300,13 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1311,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -1335,7 +1338,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -1351,20 +1354,20 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
         <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -1373,36 +1376,36 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
       </c>
       <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
         <v>17</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>18</v>
       </c>
-      <c r="I32" t="s">
-        <v>19</v>
-      </c>
       <c r="J32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K32" t="s">
         <v>11</v>
       </c>
       <c r="L32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1411,27 +1414,27 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J33">
         <v>100</v>
       </c>
       <c r="K33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34">
         <v>5.81</v>
@@ -1440,13 +1443,13 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
         <v>24</v>
-      </c>
-      <c r="F34" t="s">
-        <v>25</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1458,13 +1461,13 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1472,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -1496,7 +1499,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -1512,28 +1515,28 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
         <v>14</v>
-      </c>
-      <c r="B44" t="s">
-        <v>15</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -1542,28 +1545,28 @@
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F44" t="s">
         <v>5</v>
       </c>
       <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
         <v>17</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>18</v>
       </c>
-      <c r="I44" t="s">
-        <v>19</v>
-      </c>
       <c r="J44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K44" t="s">
         <v>11</v>
       </c>
       <c r="L44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M44" t="s">
         <v>3</v>
@@ -1571,7 +1574,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45">
         <v>7.9299999999999995E-13</v>
@@ -1580,10 +1583,10 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -1595,7 +1598,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B46">
         <v>8.0000000000000003E-10</v>
@@ -1612,10 +1615,10 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -1627,7 +1630,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -1635,7 +1638,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47">
         <v>1.2100000000000001E-7</v>
@@ -1644,10 +1647,10 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -1659,7 +1662,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -1667,7 +1670,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48">
         <v>9.2600000000000001E-10</v>
@@ -1676,10 +1679,10 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -1691,7 +1694,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -1699,7 +1702,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>5.2899999999999997E-13</v>
@@ -1708,10 +1711,10 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -1723,7 +1726,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -1731,7 +1734,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>9.2600000000000001E-7</v>
@@ -1740,10 +1743,10 @@
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -1755,7 +1758,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -1763,7 +1766,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B51">
         <v>5.6000000000000001E-2</v>
@@ -1772,10 +1775,10 @@
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -1787,7 +1790,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -1795,7 +1798,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52">
         <v>2.2000000000000001E-6</v>
@@ -1804,10 +1807,10 @@
         <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -1819,7 +1822,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -1827,7 +1830,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B53">
         <v>9.9999999999999995E-7</v>
@@ -1836,10 +1839,10 @@
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -1851,7 +1854,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -1859,7 +1862,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54">
         <v>2.9000000000000003E-17</v>
@@ -1868,10 +1871,10 @@
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -1883,7 +1886,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -1891,7 +1894,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B55">
         <v>1.37E-6</v>
@@ -1900,10 +1903,10 @@
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -1915,7 +1918,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -1923,7 +1926,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B56">
         <v>3.3099999999999999E-8</v>
@@ -1932,10 +1935,10 @@
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -1947,7 +1950,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -1955,19 +1958,19 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>0.52500000000000002</v>
       </c>
       <c r="D57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -1979,7 +1982,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -1987,7 +1990,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B58">
         <v>7.9299999999999997E-7</v>
@@ -1996,10 +1999,10 @@
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -2011,7 +2014,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -2019,7 +2022,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B59">
         <v>3E-11</v>
@@ -2028,10 +2031,10 @@
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -2043,7 +2046,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -2051,7 +2054,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60">
         <v>9.9999999999999995E-7</v>
@@ -2060,10 +2063,10 @@
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -2075,7 +2078,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -2083,7 +2086,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B61">
         <v>2.72E-5</v>
@@ -2092,10 +2095,10 @@
         <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -2107,7 +2110,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -2115,7 +2118,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62">
         <v>8.0000000000000005E-9</v>
@@ -2124,10 +2127,10 @@
         <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -2139,7 +2142,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -2147,7 +2150,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63">
         <v>4.9999999999999998E-7</v>
@@ -2156,10 +2159,10 @@
         <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -2171,7 +2174,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64">
         <v>1.15E-6</v>
@@ -2188,10 +2191,10 @@
         <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -2203,7 +2206,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -2211,7 +2214,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65">
         <v>7.0500000000000003E-7</v>
@@ -2220,10 +2223,10 @@
         <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -2235,7 +2238,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>1.6000000000000001E-8</v>
@@ -2252,10 +2255,10 @@
         <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -2267,7 +2270,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -2275,7 +2278,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>4.9999999999999998E-7</v>
@@ -2284,10 +2287,10 @@
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -2299,7 +2302,7 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -2307,7 +2310,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68">
         <v>1.5E-9</v>
@@ -2316,10 +2319,10 @@
         <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -2331,7 +2334,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -2339,7 +2342,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -2348,19 +2351,19 @@
         <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J69">
         <v>100</v>
       </c>
       <c r="K69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2378,30 +2381,30 @@
         <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B71">
         <v>2.28E-12</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
       </c>
       <c r="E71" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" t="s">
         <v>24</v>
-      </c>
-      <c r="F71" t="s">
-        <v>25</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2410,12 +2413,12 @@
         <v>2.28E-12</v>
       </c>
       <c r="K71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B72">
         <v>2.5000000000000002E-6</v>
@@ -2427,10 +2430,10 @@
         <v>8</v>
       </c>
       <c r="E72" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" t="s">
         <v>24</v>
-      </c>
-      <c r="F72" t="s">
-        <v>25</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -2442,7 +2445,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -2450,22 +2453,22 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B73">
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
       </c>
       <c r="E73" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" t="s">
         <v>24</v>
-      </c>
-      <c r="F73" t="s">
-        <v>25</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -2477,7 +2480,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -2485,22 +2488,22 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B74">
         <v>0.5</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
       </c>
       <c r="E74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" t="s">
         <v>24</v>
-      </c>
-      <c r="F74" t="s">
-        <v>25</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -2512,33 +2515,33 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B75">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -2550,7 +2553,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -2561,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -2585,7 +2588,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -2601,28 +2604,28 @@
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" t="s">
         <v>14</v>
-      </c>
-      <c r="B85" t="s">
-        <v>15</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
@@ -2631,28 +2634,28 @@
         <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F85" t="s">
         <v>5</v>
       </c>
       <c r="G85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s">
         <v>17</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>18</v>
       </c>
-      <c r="I85" t="s">
-        <v>19</v>
-      </c>
       <c r="J85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K85" t="s">
         <v>11</v>
       </c>
       <c r="L85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M85" t="s">
         <v>3</v>
@@ -2660,7 +2663,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B86">
         <v>7.9299999999999995E-13</v>
@@ -2669,10 +2672,10 @@
         <v>8</v>
       </c>
       <c r="E86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -2684,7 +2687,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -2692,7 +2695,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87">
         <v>8.0000000000000003E-10</v>
@@ -2701,10 +2704,10 @@
         <v>8</v>
       </c>
       <c r="E87" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -2716,7 +2719,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -2724,7 +2727,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88">
         <v>1.2100000000000001E-7</v>
@@ -2733,10 +2736,10 @@
         <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -2748,7 +2751,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -2756,7 +2759,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>9.2600000000000001E-10</v>
@@ -2765,10 +2768,10 @@
         <v>8</v>
       </c>
       <c r="E89" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -2780,7 +2783,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -2788,7 +2791,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>5.2899999999999997E-13</v>
@@ -2797,10 +2800,10 @@
         <v>8</v>
       </c>
       <c r="E90" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -2812,7 +2815,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -2820,7 +2823,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91">
         <v>9.2600000000000001E-7</v>
@@ -2829,10 +2832,10 @@
         <v>8</v>
       </c>
       <c r="E91" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -2844,7 +2847,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K91" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -2852,7 +2855,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B92">
         <v>5.5999999999999999E-3</v>
@@ -2861,10 +2864,10 @@
         <v>8</v>
       </c>
       <c r="E92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -2876,7 +2879,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -2884,7 +2887,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B93">
         <v>2.2000000000000001E-6</v>
@@ -2893,10 +2896,10 @@
         <v>8</v>
       </c>
       <c r="E93" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -2908,7 +2911,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -2916,7 +2919,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B94">
         <v>9.9999999999999995E-7</v>
@@ -2925,10 +2928,10 @@
         <v>8</v>
       </c>
       <c r="E94" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -2940,7 +2943,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L94">
         <v>0</v>
@@ -2948,7 +2951,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B95">
         <v>2.9000000000000003E-17</v>
@@ -2957,10 +2960,10 @@
         <v>8</v>
       </c>
       <c r="E95" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -2972,7 +2975,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L95">
         <v>0</v>
@@ -2980,7 +2983,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B96">
         <v>1.37E-6</v>
@@ -2989,10 +2992,10 @@
         <v>8</v>
       </c>
       <c r="E96" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -3004,7 +3007,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K96" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L96">
         <v>0</v>
@@ -3012,7 +3015,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B97">
         <v>3.3099999999999999E-8</v>
@@ -3021,10 +3024,10 @@
         <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -3036,7 +3039,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K97" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L97">
         <v>0</v>
@@ -3044,19 +3047,19 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B98">
         <v>0.52500000000000002</v>
       </c>
       <c r="D98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E98" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -3068,7 +3071,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K98" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -3076,7 +3079,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B99">
         <v>7.9299999999999997E-7</v>
@@ -3085,10 +3088,10 @@
         <v>8</v>
       </c>
       <c r="E99" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -3100,7 +3103,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K99" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -3108,7 +3111,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B100">
         <v>3E-11</v>
@@ -3117,10 +3120,10 @@
         <v>8</v>
       </c>
       <c r="E100" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -3132,7 +3135,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K100" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L100">
         <v>0</v>
@@ -3140,7 +3143,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B101">
         <v>9.9999999999999995E-7</v>
@@ -3149,10 +3152,10 @@
         <v>8</v>
       </c>
       <c r="E101" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -3164,7 +3167,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -3172,7 +3175,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B102">
         <v>9.9699999999999994E-6</v>
@@ -3181,10 +3184,10 @@
         <v>8</v>
       </c>
       <c r="E102" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -3196,7 +3199,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K102" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L102">
         <v>0</v>
@@ -3204,7 +3207,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B103">
         <v>8.0000000000000005E-9</v>
@@ -3213,10 +3216,10 @@
         <v>8</v>
       </c>
       <c r="E103" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -3228,7 +3231,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L103">
         <v>0</v>
@@ -3236,7 +3239,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B104">
         <v>4.9999999999999998E-7</v>
@@ -3245,10 +3248,10 @@
         <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -3260,7 +3263,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K104" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L104">
         <v>0</v>
@@ -3268,7 +3271,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B105">
         <v>1.15E-6</v>
@@ -3277,10 +3280,10 @@
         <v>8</v>
       </c>
       <c r="E105" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -3292,7 +3295,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K105" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -3300,7 +3303,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B106">
         <v>7.0500000000000003E-7</v>
@@ -3309,10 +3312,10 @@
         <v>8</v>
       </c>
       <c r="E106" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -3324,7 +3327,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K106" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L106">
         <v>0</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B107">
         <v>1.6000000000000001E-8</v>
@@ -3341,10 +3344,10 @@
         <v>8</v>
       </c>
       <c r="E107" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -3356,7 +3359,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L107">
         <v>0</v>
@@ -3364,7 +3367,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B108">
         <v>4.9999999999999998E-7</v>
@@ -3373,10 +3376,10 @@
         <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -3388,7 +3391,7 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -3396,7 +3399,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B109">
         <v>1.5E-9</v>
@@ -3405,10 +3408,10 @@
         <v>8</v>
       </c>
       <c r="E109" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -3420,7 +3423,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L109">
         <v>0</v>
@@ -3428,7 +3431,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -3437,24 +3440,24 @@
         <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E110" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J110">
         <v>100</v>
       </c>
       <c r="K110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B111">
         <v>5.04E-2</v>
@@ -3466,10 +3469,10 @@
         <v>8</v>
       </c>
       <c r="E111" t="s">
+        <v>23</v>
+      </c>
+      <c r="F111" t="s">
         <v>24</v>
-      </c>
-      <c r="F111" t="s">
-        <v>25</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3478,7 +3481,7 @@
         <v>5.04E-2</v>
       </c>
       <c r="K111" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3496,30 +3499,30 @@
         <v>8</v>
       </c>
       <c r="F112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K112" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B113">
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
       </c>
       <c r="E113" t="s">
+        <v>23</v>
+      </c>
+      <c r="F113" t="s">
         <v>24</v>
-      </c>
-      <c r="F113" t="s">
-        <v>25</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3528,27 +3531,27 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B114">
         <v>2.1900000000000002E-12</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
       </c>
       <c r="E114" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" t="s">
         <v>24</v>
-      </c>
-      <c r="F114" t="s">
-        <v>25</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3557,12 +3560,12 @@
         <v>2.1900000000000002E-12</v>
       </c>
       <c r="K114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B115">
         <v>2.5000000000000002E-6</v>
@@ -3574,10 +3577,10 @@
         <v>8</v>
       </c>
       <c r="E115" t="s">
+        <v>23</v>
+      </c>
+      <c r="F115" t="s">
         <v>24</v>
-      </c>
-      <c r="F115" t="s">
-        <v>25</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -3589,7 +3592,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L115">
         <v>0</v>
@@ -3597,22 +3600,22 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B116">
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
       </c>
       <c r="E116" t="s">
+        <v>23</v>
+      </c>
+      <c r="F116" t="s">
         <v>24</v>
-      </c>
-      <c r="F116" t="s">
-        <v>25</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -3624,7 +3627,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L116">
         <v>0</v>
@@ -3632,22 +3635,22 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B117">
         <v>0.5</v>
       </c>
       <c r="C117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
       </c>
       <c r="E117" t="s">
+        <v>23</v>
+      </c>
+      <c r="F117" t="s">
         <v>24</v>
-      </c>
-      <c r="F117" t="s">
-        <v>25</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -3659,33 +3662,33 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L117">
         <v>0</v>
       </c>
       <c r="M117" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B118">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
       </c>
       <c r="E118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F118" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -3697,7 +3700,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L118">
         <v>0</v>
@@ -3708,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -3732,7 +3735,7 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -3748,28 +3751,28 @@
         <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" t="s">
         <v>14</v>
-      </c>
-      <c r="B128" t="s">
-        <v>15</v>
       </c>
       <c r="C128" t="s">
         <v>9</v>
@@ -3778,28 +3781,28 @@
         <v>7</v>
       </c>
       <c r="E128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
       </c>
       <c r="G128" t="s">
+        <v>16</v>
+      </c>
+      <c r="H128" t="s">
         <v>17</v>
       </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
         <v>18</v>
       </c>
-      <c r="I128" t="s">
-        <v>19</v>
-      </c>
       <c r="J128" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K128" t="s">
         <v>11</v>
       </c>
       <c r="L128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M128" t="s">
         <v>3</v>
@@ -3807,7 +3810,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B129">
         <v>7.9299999999999995E-13</v>
@@ -3816,10 +3819,10 @@
         <v>8</v>
       </c>
       <c r="E129" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -3831,7 +3834,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L129">
         <v>0</v>
@@ -3839,7 +3842,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B130">
         <v>8.0000000000000003E-10</v>
@@ -3848,10 +3851,10 @@
         <v>8</v>
       </c>
       <c r="E130" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -3863,7 +3866,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L130">
         <v>0</v>
@@ -3871,7 +3874,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B131">
         <v>1.2100000000000001E-7</v>
@@ -3880,10 +3883,10 @@
         <v>8</v>
       </c>
       <c r="E131" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -3895,7 +3898,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L131">
         <v>0</v>
@@ -3903,7 +3906,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B132">
         <v>9.2600000000000001E-10</v>
@@ -3912,10 +3915,10 @@
         <v>8</v>
       </c>
       <c r="E132" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -3927,7 +3930,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K132" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L132">
         <v>0</v>
@@ -3935,7 +3938,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B133">
         <v>5.2899999999999997E-13</v>
@@ -3944,10 +3947,10 @@
         <v>8</v>
       </c>
       <c r="E133" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -3959,7 +3962,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K133" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L133">
         <v>0</v>
@@ -3967,7 +3970,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B134">
         <v>9.2600000000000001E-7</v>
@@ -3976,10 +3979,10 @@
         <v>8</v>
       </c>
       <c r="E134" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -3991,7 +3994,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L134">
         <v>0</v>
@@ -3999,7 +4002,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B135">
         <v>5.5999999999999999E-3</v>
@@ -4008,10 +4011,10 @@
         <v>8</v>
       </c>
       <c r="E135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -4023,7 +4026,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K135" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L135">
         <v>0</v>
@@ -4031,7 +4034,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B136">
         <v>2.2000000000000001E-6</v>
@@ -4040,10 +4043,10 @@
         <v>8</v>
       </c>
       <c r="E136" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -4055,7 +4058,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K136" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L136">
         <v>0</v>
@@ -4063,7 +4066,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B137">
         <v>9.9999999999999995E-7</v>
@@ -4072,10 +4075,10 @@
         <v>8</v>
       </c>
       <c r="E137" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -4087,7 +4090,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K137" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L137">
         <v>0</v>
@@ -4095,7 +4098,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B138">
         <v>2.9000000000000003E-17</v>
@@ -4104,10 +4107,10 @@
         <v>8</v>
       </c>
       <c r="E138" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -4119,7 +4122,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L138">
         <v>0</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B139">
         <v>1.37E-6</v>
@@ -4136,10 +4139,10 @@
         <v>8</v>
       </c>
       <c r="E139" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -4151,7 +4154,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K139" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L139">
         <v>0</v>
@@ -4159,7 +4162,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B140">
         <v>3.3099999999999999E-8</v>
@@ -4168,10 +4171,10 @@
         <v>8</v>
       </c>
       <c r="E140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -4183,7 +4186,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K140" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L140">
         <v>0</v>
@@ -4191,19 +4194,19 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B141">
         <v>0.52500000000000002</v>
       </c>
       <c r="D141" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E141" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -4215,7 +4218,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K141" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L141">
         <v>0</v>
@@ -4223,7 +4226,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B142">
         <v>7.9299999999999997E-7</v>
@@ -4232,10 +4235,10 @@
         <v>8</v>
       </c>
       <c r="E142" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -4247,7 +4250,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K142" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L142">
         <v>0</v>
@@ -4255,7 +4258,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B143">
         <v>3E-11</v>
@@ -4264,10 +4267,10 @@
         <v>8</v>
       </c>
       <c r="E143" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -4279,7 +4282,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K143" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L143">
         <v>0</v>
@@ -4287,7 +4290,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B144">
         <v>9.9999999999999995E-7</v>
@@ -4296,10 +4299,10 @@
         <v>8</v>
       </c>
       <c r="E144" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -4311,7 +4314,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L144">
         <v>0</v>
@@ -4319,7 +4322,7 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B145">
         <v>9.9699999999999994E-6</v>
@@ -4328,10 +4331,10 @@
         <v>8</v>
       </c>
       <c r="E145" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -4343,7 +4346,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K145" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L145">
         <v>0</v>
@@ -4351,7 +4354,7 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B146">
         <v>8.0000000000000005E-9</v>
@@ -4360,10 +4363,10 @@
         <v>8</v>
       </c>
       <c r="E146" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -4375,7 +4378,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L146">
         <v>0</v>
@@ -4383,7 +4386,7 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B147">
         <v>4.9999999999999998E-7</v>
@@ -4392,10 +4395,10 @@
         <v>8</v>
       </c>
       <c r="E147" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -4407,7 +4410,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K147" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L147">
         <v>0</v>
@@ -4415,7 +4418,7 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B148">
         <v>1.15E-6</v>
@@ -4424,10 +4427,10 @@
         <v>8</v>
       </c>
       <c r="E148" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -4439,7 +4442,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K148" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L148">
         <v>0</v>
@@ -4447,7 +4450,7 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B149">
         <v>7.0500000000000003E-7</v>
@@ -4456,10 +4459,10 @@
         <v>8</v>
       </c>
       <c r="E149" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -4471,7 +4474,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K149" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L149">
         <v>0</v>
@@ -4479,7 +4482,7 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B150">
         <v>1.6000000000000001E-8</v>
@@ -4488,10 +4491,10 @@
         <v>8</v>
       </c>
       <c r="E150" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -4503,7 +4506,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L150">
         <v>0</v>
@@ -4511,7 +4514,7 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B151">
         <v>4.9999999999999998E-7</v>
@@ -4520,10 +4523,10 @@
         <v>8</v>
       </c>
       <c r="E151" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -4535,7 +4538,7 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K151" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L151">
         <v>0</v>
@@ -4543,7 +4546,7 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B152">
         <v>1.5E-9</v>
@@ -4552,10 +4555,10 @@
         <v>8</v>
       </c>
       <c r="E152" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -4567,7 +4570,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K152" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L152">
         <v>0</v>
@@ -4575,7 +4578,7 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -4584,24 +4587,24 @@
         <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E153" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F153" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J153">
         <v>100</v>
       </c>
       <c r="K153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B154">
         <v>5.04E-2</v>
@@ -4613,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="E154" t="s">
+        <v>23</v>
+      </c>
+      <c r="F154" t="s">
         <v>24</v>
-      </c>
-      <c r="F154" t="s">
-        <v>25</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -4625,7 +4628,7 @@
         <v>5.04E-2</v>
       </c>
       <c r="K154" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4643,30 +4646,30 @@
         <v>8</v>
       </c>
       <c r="F155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B156">
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D156" t="s">
         <v>8</v>
       </c>
       <c r="E156" t="s">
+        <v>23</v>
+      </c>
+      <c r="F156" t="s">
         <v>24</v>
-      </c>
-      <c r="F156" t="s">
-        <v>25</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -4675,27 +4678,27 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K156" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B157">
         <v>2.1900000000000002E-12</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D157" t="s">
         <v>7</v>
       </c>
       <c r="E157" t="s">
+        <v>23</v>
+      </c>
+      <c r="F157" t="s">
         <v>24</v>
-      </c>
-      <c r="F157" t="s">
-        <v>25</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -4704,12 +4707,12 @@
         <v>2.1900000000000002E-12</v>
       </c>
       <c r="K157" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B158">
         <v>2.5000000000000002E-6</v>
@@ -4721,10 +4724,10 @@
         <v>8</v>
       </c>
       <c r="E158" t="s">
+        <v>23</v>
+      </c>
+      <c r="F158" t="s">
         <v>24</v>
-      </c>
-      <c r="F158" t="s">
-        <v>25</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -4736,7 +4739,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K158" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L158">
         <v>0</v>
@@ -4744,22 +4747,22 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B159">
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D159" t="s">
         <v>8</v>
       </c>
       <c r="E159" t="s">
+        <v>23</v>
+      </c>
+      <c r="F159" t="s">
         <v>24</v>
-      </c>
-      <c r="F159" t="s">
-        <v>25</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -4771,7 +4774,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L159">
         <v>0</v>
@@ -4779,22 +4782,22 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B160">
         <v>0.5</v>
       </c>
       <c r="C160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D160" t="s">
         <v>8</v>
       </c>
       <c r="E160" t="s">
+        <v>23</v>
+      </c>
+      <c r="F160" t="s">
         <v>24</v>
-      </c>
-      <c r="F160" t="s">
-        <v>25</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -4806,33 +4809,33 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K160" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L160">
         <v>0</v>
       </c>
       <c r="M160" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B161">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="C161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D161" t="s">
         <v>8</v>
       </c>
       <c r="E161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F161" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -4844,7 +4847,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L161">
         <v>0</v>
@@ -4855,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
@@ -4879,7 +4882,7 @@
         <v>3</v>
       </c>
       <c r="B167" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
@@ -4903,37 +4906,37 @@
         <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>40</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>167</v>
+        <v>39</v>
+      </c>
+      <c r="B171" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173" t="s">
         <v>14</v>
       </c>
-      <c r="B173" t="s">
-        <v>15</v>
-      </c>
       <c r="C173" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D173" t="s">
         <v>9</v>
       </c>
       <c r="E173" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F173" t="s">
         <v>7</v>
@@ -4947,13 +4950,13 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D174" t="s">
         <v>10</v>
@@ -4962,10 +4965,10 @@
         <v>8</v>
       </c>
       <c r="G174" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H174" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
@@ -4976,7 +4979,7 @@
         <v>1.02</v>
       </c>
       <c r="C175" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D175" t="s">
         <v>10</v>
@@ -4985,7 +4988,7 @@
         <v>8</v>
       </c>
       <c r="G175" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -4993,181 +4996,181 @@
     </row>
     <row r="176" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B176">
         <f>(0.0028236*0.669)+0.208</f>
         <v>0.2098889884</v>
       </c>
       <c r="C176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D176" t="s">
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B177">
         <f>0.061874*0.669</f>
         <v>4.1393706000000002E-2</v>
       </c>
       <c r="C177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F177" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G177" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H177" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B178">
         <f>0.000000034944*0.669</f>
         <v>2.3377536E-8</v>
       </c>
       <c r="C178" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D178" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F178" t="s">
+        <v>155</v>
+      </c>
+      <c r="G178" t="s">
+        <v>24</v>
+      </c>
+      <c r="H178" t="s">
         <v>156</v>
-      </c>
-      <c r="G178" t="s">
-        <v>25</v>
-      </c>
-      <c r="H178" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B179" s="7">
         <v>8.4800000000000005E-8</v>
       </c>
       <c r="C179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D179" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F179" t="s">
         <v>7</v>
       </c>
       <c r="G179" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H179" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B180">
         <f>(0.00000521*0.669)+0.000010376</f>
         <v>1.386149E-5</v>
       </c>
       <c r="C180" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E180" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F180" t="s">
         <v>8</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B181">
         <f>(0.000000000597*0.669)+0.000000004</f>
         <v>4.3993930000000006E-9</v>
       </c>
       <c r="C181" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E181" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F181" t="s">
         <v>8</v>
       </c>
       <c r="G181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B182">
         <f>(0.00018*0.669)+0.00018</f>
         <v>3.0042000000000003E-4</v>
       </c>
       <c r="C182" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E182" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F182" t="s">
         <v>8</v>
       </c>
       <c r="G182" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B183">
         <f>0.0000018*0.669</f>
         <v>1.2042E-6</v>
       </c>
       <c r="C183" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E183" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F183" t="s">
         <v>8</v>
       </c>
       <c r="G183" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5223,28 +5226,28 @@
         <v>11</v>
       </c>
       <c r="B191" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>40</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>167</v>
+        <v>39</v>
+      </c>
+      <c r="B192" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="193" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" t="s">
         <v>14</v>
-      </c>
-      <c r="B194" t="s">
-        <v>15</v>
       </c>
       <c r="C194" t="s">
         <v>9</v>
@@ -5253,27 +5256,15 @@
         <v>7</v>
       </c>
       <c r="E194" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F194" t="s">
         <v>5</v>
       </c>
       <c r="G194" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H194" t="s">
-        <v>18</v>
-      </c>
-      <c r="I194" t="s">
-        <v>19</v>
-      </c>
-      <c r="J194" t="s">
-        <v>20</v>
-      </c>
-      <c r="K194" t="s">
-        <v>3</v>
-      </c>
-      <c r="L194" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5291,24 +5282,22 @@
         <v>8</v>
       </c>
       <c r="E195" t="s">
+        <v>20</v>
+      </c>
+      <c r="F195" t="s">
         <v>21</v>
       </c>
-      <c r="F195" t="s">
-        <v>22</v>
-      </c>
-      <c r="J195" t="s">
-        <v>39</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="G195" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B196">
-        <v>8.06180790960452E-6</v>
+        <f>0.000000283/0.717</f>
+        <v>3.9470013947001396E-7</v>
       </c>
       <c r="C196" t="s">
         <v>10</v>
@@ -5317,35 +5306,24 @@
         <v>7</v>
       </c>
       <c r="E196" t="s">
+        <v>23</v>
+      </c>
+      <c r="F196" t="s">
         <v>24</v>
       </c>
-      <c r="F196" t="s">
-        <v>25</v>
-      </c>
-      <c r="G196">
-        <v>2</v>
-      </c>
-      <c r="H196">
-        <v>-12.073683905484531</v>
-      </c>
-      <c r="I196">
-        <v>0.41862376226685111</v>
-      </c>
-      <c r="J196" t="s">
-        <v>39</v>
-      </c>
-      <c r="K196" s="2" t="s">
-        <v>23</v>
+      <c r="G196" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="Q196" s="3"/>
       <c r="S196" s="3"/>
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="B197">
-        <v>2.768361581920904</v>
+        <f>1.972/0.717</f>
+        <v>2.7503486750348678</v>
       </c>
       <c r="C197" t="s">
         <v>10</v>
@@ -5354,35 +5332,25 @@
         <v>8</v>
       </c>
       <c r="E197" t="s">
+        <v>23</v>
+      </c>
+      <c r="F197" t="s">
         <v>24</v>
       </c>
-      <c r="F197" t="s">
+      <c r="G197" t="s">
         <v>25</v>
       </c>
-      <c r="G197">
-        <v>2</v>
-      </c>
-      <c r="H197">
-        <v>0.67294447324242579</v>
-      </c>
-      <c r="I197">
-        <v>0.20605482541341649</v>
-      </c>
-      <c r="J197" t="s">
-        <v>39</v>
-      </c>
-      <c r="K197" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q197" s="4"/>
+      <c r="Q197" s="3"/>
+      <c r="R197" s="3"/>
       <c r="S197" s="4"/>
     </row>
     <row r="198" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B198">
-        <v>0.50779661016949151</v>
+        <f>(4*0.0893)/0.717</f>
+        <v>0.49818688981868903</v>
       </c>
       <c r="C198" t="s">
         <v>10</v>
@@ -5391,29 +5359,25 @@
         <v>8</v>
       </c>
       <c r="E198" t="s">
+        <v>23</v>
+      </c>
+      <c r="F198" t="s">
         <v>24</v>
       </c>
-      <c r="F198" t="s">
-        <v>25</v>
-      </c>
-      <c r="G198">
-        <v>1</v>
-      </c>
-      <c r="J198" t="s">
-        <v>39</v>
-      </c>
-      <c r="K198" s="2" t="s">
-        <v>168</v>
+      <c r="G198" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="Q198" s="3"/>
+      <c r="R198" s="3"/>
       <c r="S198" s="3"/>
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B199">
-        <v>1.7655367231638421E-4</v>
+        <f>0.00006/0.717</f>
+        <v>8.3682008368200843E-5</v>
       </c>
       <c r="C199" t="s">
         <v>10</v>
@@ -5422,22 +5386,10 @@
         <v>8</v>
       </c>
       <c r="E199" t="s">
+        <v>23</v>
+      </c>
+      <c r="F199" t="s">
         <v>24</v>
-      </c>
-      <c r="F199" t="s">
-        <v>25</v>
-      </c>
-      <c r="G199">
-        <v>2</v>
-      </c>
-      <c r="H199">
-        <v>-8.987196820661973</v>
-      </c>
-      <c r="I199">
-        <v>7.4210002559136581E-2</v>
-      </c>
-      <c r="J199" t="s">
-        <v>39</v>
       </c>
       <c r="Q199" s="3"/>
       <c r="S199" s="3"/>
@@ -5447,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.2">
@@ -5463,7 +5415,7 @@
         <v>3</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.2">
@@ -5492,23 +5444,23 @@
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>40</v>
-      </c>
-      <c r="B207" s="8" t="s">
-        <v>167</v>
+        <v>39</v>
+      </c>
+      <c r="B207" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="208" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209" t="s">
         <v>14</v>
-      </c>
-      <c r="B209" t="s">
-        <v>15</v>
       </c>
       <c r="C209" t="s">
         <v>9</v>
@@ -5517,22 +5469,22 @@
         <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F209" t="s">
         <v>5</v>
       </c>
       <c r="G209" t="s">
+        <v>16</v>
+      </c>
+      <c r="H209" t="s">
         <v>17</v>
       </c>
-      <c r="H209" t="s">
+      <c r="I209" t="s">
         <v>18</v>
       </c>
-      <c r="I209" t="s">
+      <c r="J209" t="s">
         <v>19</v>
-      </c>
-      <c r="J209" t="s">
-        <v>20</v>
       </c>
       <c r="K209" t="s">
         <v>3</v>
@@ -5540,7 +5492,7 @@
     </row>
     <row r="210" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -5552,36 +5504,36 @@
         <v>7</v>
       </c>
       <c r="E210" t="s">
+        <v>20</v>
+      </c>
+      <c r="F210" t="s">
         <v>21</v>
       </c>
-      <c r="F210" t="s">
+      <c r="J210" t="s">
+        <v>38</v>
+      </c>
+      <c r="K210" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="J210" t="s">
-        <v>39</v>
-      </c>
-      <c r="K210" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B211">
         <v>300</v>
       </c>
       <c r="C211" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D211" t="s">
         <v>8</v>
       </c>
       <c r="E211" t="s">
+        <v>23</v>
+      </c>
+      <c r="F211" t="s">
         <v>24</v>
-      </c>
-      <c r="F211" t="s">
-        <v>25</v>
       </c>
       <c r="G211">
         <v>2</v>
@@ -5593,10 +5545,10 @@
         <v>0.46212945076166601</v>
       </c>
       <c r="J211" t="s">
+        <v>29</v>
+      </c>
+      <c r="K211" t="s">
         <v>30</v>
-      </c>
-      <c r="K211" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="213" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5604,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
@@ -5620,7 +5572,7 @@
         <v>3</v>
       </c>
       <c r="B215" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
@@ -5649,23 +5601,23 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
+        <v>39</v>
+      </c>
+      <c r="B219" t="s">
         <v>40</v>
-      </c>
-      <c r="B219" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>13</v>
+      </c>
+      <c r="B221" t="s">
         <v>14</v>
-      </c>
-      <c r="B221" t="s">
-        <v>15</v>
       </c>
       <c r="C221" t="s">
         <v>9</v>
@@ -5674,30 +5626,30 @@
         <v>7</v>
       </c>
       <c r="E221" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F221" t="s">
         <v>5</v>
       </c>
       <c r="G221" t="s">
+        <v>16</v>
+      </c>
+      <c r="H221" t="s">
         <v>17</v>
       </c>
-      <c r="H221" t="s">
+      <c r="I221" t="s">
         <v>18</v>
-      </c>
-      <c r="I221" t="s">
-        <v>19</v>
       </c>
       <c r="J221" t="s">
         <v>3</v>
       </c>
       <c r="K221" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -5709,36 +5661,36 @@
         <v>8</v>
       </c>
       <c r="E222" t="s">
+        <v>20</v>
+      </c>
+      <c r="F222" t="s">
         <v>21</v>
       </c>
-      <c r="F222" t="s">
-        <v>22</v>
-      </c>
       <c r="J222" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K222" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B223">
         <v>0.81</v>
       </c>
       <c r="C223" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D223" t="s">
         <v>8</v>
       </c>
       <c r="E223" t="s">
+        <v>23</v>
+      </c>
+      <c r="F223" t="s">
         <v>24</v>
-      </c>
-      <c r="F223" t="s">
-        <v>25</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -5750,30 +5702,30 @@
         <v>0.30759281954511669</v>
       </c>
       <c r="J223" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K223" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B224">
         <v>0.19</v>
       </c>
       <c r="C224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D224" t="s">
         <v>8</v>
       </c>
       <c r="E224" t="s">
+        <v>23</v>
+      </c>
+      <c r="F224" t="s">
         <v>24</v>
-      </c>
-      <c r="F224" t="s">
-        <v>25</v>
       </c>
       <c r="G224">
         <v>2</v>
@@ -5785,10 +5737,10 @@
         <v>0.31028824386255488</v>
       </c>
       <c r="J224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K224" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="226" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5796,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -5820,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="B229" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -5841,23 +5793,23 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B232" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="233" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
+        <v>13</v>
+      </c>
+      <c r="B234" t="s">
         <v>14</v>
-      </c>
-      <c r="B234" t="s">
-        <v>15</v>
       </c>
       <c r="C234" t="s">
         <v>9</v>
@@ -5866,25 +5818,25 @@
         <v>7</v>
       </c>
       <c r="E234" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F234" t="s">
         <v>5</v>
       </c>
       <c r="G234" t="s">
+        <v>16</v>
+      </c>
+      <c r="H234" t="s">
         <v>17</v>
       </c>
-      <c r="H234" t="s">
-        <v>18</v>
-      </c>
       <c r="I234" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J234" t="s">
         <v>11</v>
       </c>
       <c r="K234" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L234" t="s">
         <v>3</v>
@@ -5892,7 +5844,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B235">
         <v>1.2300000000000001E-4</v>
@@ -5901,10 +5853,10 @@
         <v>8</v>
       </c>
       <c r="E235" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F235" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -5913,12 +5865,12 @@
         <v>1.2300000000000001E-4</v>
       </c>
       <c r="J235" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B236">
         <v>6.0000000000000002E-6</v>
@@ -5927,10 +5879,10 @@
         <v>8</v>
       </c>
       <c r="E236" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F236" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -5939,24 +5891,24 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="J236" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B237">
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="D237" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E237" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F237" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -5965,12 +5917,12 @@
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="J237" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -5982,24 +5934,24 @@
         <v>8</v>
       </c>
       <c r="E238" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F238" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I238">
         <v>100</v>
       </c>
       <c r="J238" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K238" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -6011,10 +5963,10 @@
         <v>8</v>
       </c>
       <c r="E239" t="s">
+        <v>23</v>
+      </c>
+      <c r="F239" t="s">
         <v>24</v>
-      </c>
-      <c r="F239" t="s">
-        <v>25</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -6023,15 +5975,15 @@
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K239" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B240">
         <v>0.38400000000000001</v>
@@ -6040,13 +5992,13 @@
         <v>10</v>
       </c>
       <c r="D240" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E240" t="s">
+        <v>23</v>
+      </c>
+      <c r="F240" t="s">
         <v>24</v>
-      </c>
-      <c r="F240" t="s">
-        <v>25</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -6055,15 +6007,15 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="J240" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K240" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B241">
         <v>8.2699999999999996E-11</v>
@@ -6075,10 +6027,10 @@
         <v>7</v>
       </c>
       <c r="E241" t="s">
+        <v>23</v>
+      </c>
+      <c r="F241" t="s">
         <v>24</v>
-      </c>
-      <c r="F241" t="s">
-        <v>25</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -6087,33 +6039,33 @@
         <v>8.2699999999999996E-11</v>
       </c>
       <c r="J241" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K241" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L241" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B242">
         <v>7.4400000000000002E-10</v>
       </c>
       <c r="C242" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D242" t="s">
         <v>7</v>
       </c>
       <c r="E242" t="s">
+        <v>23</v>
+      </c>
+      <c r="F242" t="s">
         <v>24</v>
-      </c>
-      <c r="F242" t="s">
-        <v>25</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -6122,33 +6074,33 @@
         <v>7.4400000000000002E-10</v>
       </c>
       <c r="J242" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K242" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L242" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B243">
         <v>8.2600000000000002E-5</v>
       </c>
       <c r="C243" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D243" t="s">
         <v>8</v>
       </c>
       <c r="E243" t="s">
+        <v>23</v>
+      </c>
+      <c r="F243" t="s">
         <v>24</v>
-      </c>
-      <c r="F243" t="s">
-        <v>25</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -6157,33 +6109,33 @@
         <v>8.2600000000000002E-5</v>
       </c>
       <c r="J243" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K243" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L243" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B244">
         <v>3.3099999999999999E-10</v>
       </c>
       <c r="C244" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D244" t="s">
         <v>7</v>
       </c>
       <c r="E244" t="s">
+        <v>23</v>
+      </c>
+      <c r="F244" t="s">
         <v>24</v>
-      </c>
-      <c r="F244" t="s">
-        <v>25</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -6192,33 +6144,33 @@
         <v>3.3099999999999999E-10</v>
       </c>
       <c r="J244" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K244" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L244" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B245">
         <v>5.1400000000000003E-12</v>
       </c>
       <c r="C245" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D245" t="s">
         <v>7</v>
       </c>
       <c r="E245" t="s">
+        <v>23</v>
+      </c>
+      <c r="F245" t="s">
         <v>24</v>
-      </c>
-      <c r="F245" t="s">
-        <v>25</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -6227,33 +6179,33 @@
         <v>5.1400000000000003E-12</v>
       </c>
       <c r="J245" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K245" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L245" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B246">
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="C246" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D246" t="s">
         <v>8</v>
       </c>
       <c r="E246" t="s">
+        <v>23</v>
+      </c>
+      <c r="F246" t="s">
         <v>24</v>
-      </c>
-      <c r="F246" t="s">
-        <v>25</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -6262,33 +6214,33 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J246" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K246" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L246" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B247">
         <v>5.7899999999999997E-10</v>
       </c>
       <c r="C247" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D247" t="s">
         <v>7</v>
       </c>
       <c r="E247" t="s">
+        <v>23</v>
+      </c>
+      <c r="F247" t="s">
         <v>24</v>
-      </c>
-      <c r="F247" t="s">
-        <v>25</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6297,33 +6249,33 @@
         <v>5.7899999999999997E-10</v>
       </c>
       <c r="J247" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K247" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L247" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B248">
         <v>3.0400000000000002E-4</v>
       </c>
       <c r="C248" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D248" t="s">
         <v>8</v>
       </c>
       <c r="E248" t="s">
+        <v>23</v>
+      </c>
+      <c r="F248" t="s">
         <v>24</v>
-      </c>
-      <c r="F248" t="s">
-        <v>25</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -6332,33 +6284,33 @@
         <v>3.0400000000000002E-4</v>
       </c>
       <c r="J248" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K248" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L248" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B249">
         <v>-2.2699999999999999E-4</v>
       </c>
       <c r="C249" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D249" t="s">
         <v>8</v>
       </c>
       <c r="E249" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F249" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -6367,13 +6319,13 @@
         <v>2.2699999999999999E-4</v>
       </c>
       <c r="J249" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K249" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L249" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="251" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -6381,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -6405,7 +6357,7 @@
         <v>3</v>
       </c>
       <c r="B254" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
@@ -6426,23 +6378,23 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B257" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="258" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>13</v>
+      </c>
+      <c r="B259" t="s">
         <v>14</v>
-      </c>
-      <c r="B259" t="s">
-        <v>15</v>
       </c>
       <c r="C259" t="s">
         <v>9</v>
@@ -6451,25 +6403,25 @@
         <v>7</v>
       </c>
       <c r="E259" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F259" t="s">
         <v>5</v>
       </c>
       <c r="G259" t="s">
+        <v>16</v>
+      </c>
+      <c r="H259" t="s">
         <v>17</v>
       </c>
-      <c r="H259" t="s">
-        <v>18</v>
-      </c>
       <c r="I259" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J259" t="s">
         <v>11</v>
       </c>
       <c r="K259" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L259" t="s">
         <v>3</v>
@@ -6477,7 +6429,7 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B260">
         <v>1.2300000000000001E-4</v>
@@ -6486,10 +6438,10 @@
         <v>8</v>
       </c>
       <c r="E260" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F260" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -6498,12 +6450,12 @@
         <v>1.2300000000000001E-4</v>
       </c>
       <c r="J260" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B261">
         <v>6.0000000000000002E-6</v>
@@ -6512,10 +6464,10 @@
         <v>8</v>
       </c>
       <c r="E261" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F261" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -6524,24 +6476,24 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="J261" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B262">
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="D262" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E262" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F262" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -6550,12 +6502,12 @@
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="J262" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -6567,24 +6519,24 @@
         <v>8</v>
       </c>
       <c r="E263" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F263" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I263">
         <v>100</v>
       </c>
       <c r="J263" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K263" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -6596,10 +6548,10 @@
         <v>8</v>
       </c>
       <c r="E264" t="s">
+        <v>23</v>
+      </c>
+      <c r="F264" t="s">
         <v>24</v>
-      </c>
-      <c r="F264" t="s">
-        <v>25</v>
       </c>
       <c r="G264">
         <v>0</v>
@@ -6608,15 +6560,15 @@
         <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K264" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B265">
         <v>0.38400000000000001</v>
@@ -6625,13 +6577,13 @@
         <v>10</v>
       </c>
       <c r="D265" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E265" t="s">
+        <v>23</v>
+      </c>
+      <c r="F265" t="s">
         <v>24</v>
-      </c>
-      <c r="F265" t="s">
-        <v>25</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -6640,15 +6592,15 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="J265" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K265" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B266">
         <v>8.2699999999999996E-11</v>
@@ -6660,10 +6612,10 @@
         <v>7</v>
       </c>
       <c r="E266" t="s">
+        <v>23</v>
+      </c>
+      <c r="F266" t="s">
         <v>24</v>
-      </c>
-      <c r="F266" t="s">
-        <v>25</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -6672,33 +6624,33 @@
         <v>8.2699999999999996E-11</v>
       </c>
       <c r="J266" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K266" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L266" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B267">
         <v>7.4400000000000002E-10</v>
       </c>
       <c r="C267" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D267" t="s">
         <v>7</v>
       </c>
       <c r="E267" t="s">
+        <v>23</v>
+      </c>
+      <c r="F267" t="s">
         <v>24</v>
-      </c>
-      <c r="F267" t="s">
-        <v>25</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -6707,33 +6659,33 @@
         <v>7.4400000000000002E-10</v>
       </c>
       <c r="J267" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K267" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L267" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B268">
         <v>8.2600000000000002E-5</v>
       </c>
       <c r="C268" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D268" t="s">
         <v>8</v>
       </c>
       <c r="E268" t="s">
+        <v>23</v>
+      </c>
+      <c r="F268" t="s">
         <v>24</v>
-      </c>
-      <c r="F268" t="s">
-        <v>25</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -6742,33 +6694,33 @@
         <v>8.2600000000000002E-5</v>
       </c>
       <c r="J268" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K268" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L268" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B269">
         <v>3.3099999999999999E-10</v>
       </c>
       <c r="C269" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D269" t="s">
         <v>7</v>
       </c>
       <c r="E269" t="s">
+        <v>23</v>
+      </c>
+      <c r="F269" t="s">
         <v>24</v>
-      </c>
-      <c r="F269" t="s">
-        <v>25</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -6777,33 +6729,33 @@
         <v>3.3099999999999999E-10</v>
       </c>
       <c r="J269" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K269" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L269" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B270">
         <v>5.1400000000000003E-12</v>
       </c>
       <c r="C270" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D270" t="s">
         <v>7</v>
       </c>
       <c r="E270" t="s">
+        <v>23</v>
+      </c>
+      <c r="F270" t="s">
         <v>24</v>
-      </c>
-      <c r="F270" t="s">
-        <v>25</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -6812,33 +6764,33 @@
         <v>5.1400000000000003E-12</v>
       </c>
       <c r="J270" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K270" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L270" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B271">
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="C271" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D271" t="s">
         <v>8</v>
       </c>
       <c r="E271" t="s">
+        <v>23</v>
+      </c>
+      <c r="F271" t="s">
         <v>24</v>
-      </c>
-      <c r="F271" t="s">
-        <v>25</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -6847,33 +6799,33 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J271" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K271" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L271" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B272">
         <v>5.7899999999999997E-10</v>
       </c>
       <c r="C272" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D272" t="s">
         <v>7</v>
       </c>
       <c r="E272" t="s">
+        <v>23</v>
+      </c>
+      <c r="F272" t="s">
         <v>24</v>
-      </c>
-      <c r="F272" t="s">
-        <v>25</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -6882,33 +6834,33 @@
         <v>5.7899999999999997E-10</v>
       </c>
       <c r="J272" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K272" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L272" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B273">
         <v>3.0400000000000002E-4</v>
       </c>
       <c r="C273" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D273" t="s">
         <v>8</v>
       </c>
       <c r="E273" t="s">
+        <v>23</v>
+      </c>
+      <c r="F273" t="s">
         <v>24</v>
-      </c>
-      <c r="F273" t="s">
-        <v>25</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -6917,33 +6869,33 @@
         <v>3.0400000000000002E-4</v>
       </c>
       <c r="J273" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K273" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L273" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B274">
         <v>-2.2699999999999999E-4</v>
       </c>
       <c r="C274" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D274" t="s">
         <v>8</v>
       </c>
       <c r="E274" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F274" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -6952,16 +6904,17 @@
         <v>2.2699999999999999E-4</v>
       </c>
       <c r="J274" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K274" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L274" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S274" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFB0CF3-42E5-F84D-AFBD-F03AB20A1792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C17057-12A8-9540-8C67-F24862A33F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Syngas!$A$1:$T$235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Syngas!$A$1:$T$236</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="178">
   <si>
     <t>Activity</t>
   </si>
@@ -561,6 +561,15 @@
   </si>
   <si>
     <t>methane, from biological methanation, with carbon from atmosphere</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>We assume 600 gallons of water consumed per ton CO2 captured, the rest is evaporated. Very uncertain. Based on https://netl.doe.gov/sites/default/files/event-proceedings/2014/carbon_storage/10--Christopher-Harto.pdf</t>
   </si>
 </sst>
 </file>
@@ -642,7 +651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -660,6 +669,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -975,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T235"/>
+  <dimension ref="A1:T236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2392,8 +2402,8 @@
         <v>107</v>
       </c>
       <c r="B59">
-        <f>B78*47.5*0.054*0.1</f>
-        <v>3.5999999999999997E-2</v>
+        <f>B78*2.65*0.1</f>
+        <v>3.7192982456140354E-2</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -2969,8 +2979,8 @@
         <v>168</v>
       </c>
       <c r="B77">
-        <f>B78*47.5*0.054*0.9</f>
-        <v>0.32400000000000001</v>
+        <f>B78*2.65*0.9</f>
+        <v>0.33473684210526317</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
@@ -3392,33 +3402,28 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>168</v>
-      </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98" t="s">
-        <v>9</v>
+        <v>175</v>
+      </c>
+      <c r="B98" s="15">
+        <f>((B97*1000)-(600*3.78541/1000))/1000</f>
+        <v>8.0928753999999992E-2</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="I98">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J98" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -3430,33 +3435,30 @@
         <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="I99">
+        <v>100</v>
       </c>
       <c r="J99" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B100">
-        <v>0.38400000000000001</v>
+        <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>172</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E100" t="s">
         <v>21</v>
@@ -3468,27 +3470,24 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>0.38400000000000001</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>98</v>
-      </c>
-      <c r="K100" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B101">
-        <v>8.2699999999999996E-11</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="D101" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E101" t="s">
         <v>21</v>
@@ -3500,24 +3499,24 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>8.2699999999999996E-11</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="J101" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K101" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="B102">
-        <v>7.4400000000000002E-10</v>
+        <v>8.2699999999999996E-11</v>
       </c>
       <c r="C102" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
         <v>6</v>
@@ -3532,27 +3531,27 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>7.4400000000000002E-10</v>
+        <v>8.2699999999999996E-11</v>
       </c>
       <c r="J102" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K102" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B103">
-        <v>8.2600000000000002E-5</v>
+        <v>7.4400000000000002E-10</v>
       </c>
       <c r="C103" t="s">
         <v>24</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E103" t="s">
         <v>21</v>
@@ -3564,27 +3563,27 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>8.2600000000000002E-5</v>
+        <v>7.4400000000000002E-10</v>
       </c>
       <c r="J103" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="K103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B104">
-        <v>3.3099999999999999E-10</v>
+        <v>8.2600000000000002E-5</v>
       </c>
       <c r="C104" t="s">
         <v>24</v>
       </c>
       <c r="D104" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E104" t="s">
         <v>21</v>
@@ -3596,21 +3595,21 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>3.3099999999999999E-10</v>
+        <v>8.2600000000000002E-5</v>
       </c>
       <c r="J104" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B105">
-        <v>5.1400000000000003E-12</v>
+        <v>3.3099999999999999E-10</v>
       </c>
       <c r="C105" t="s">
         <v>24</v>
@@ -3628,27 +3627,27 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>5.1400000000000003E-12</v>
+        <v>3.3099999999999999E-10</v>
       </c>
       <c r="J105" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K105" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B106">
-        <v>2.8400000000000002E-4</v>
+        <v>5.1400000000000003E-12</v>
       </c>
       <c r="C106" t="s">
         <v>24</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E106" t="s">
         <v>21</v>
@@ -3660,27 +3659,27 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>2.8400000000000002E-4</v>
+        <v>5.1400000000000003E-12</v>
       </c>
       <c r="J106" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B107">
-        <v>5.7899999999999997E-10</v>
+        <v>2.8400000000000002E-4</v>
       </c>
       <c r="C107" t="s">
         <v>24</v>
       </c>
       <c r="D107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E107" t="s">
         <v>21</v>
@@ -3692,27 +3691,27 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>5.7899999999999997E-10</v>
+        <v>2.8400000000000002E-4</v>
       </c>
       <c r="J107" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K107" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B108">
-        <v>3.0400000000000002E-4</v>
+        <v>5.7899999999999997E-10</v>
       </c>
       <c r="C108" t="s">
         <v>24</v>
       </c>
       <c r="D108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E108" t="s">
         <v>21</v>
@@ -3724,30 +3723,30 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>3.0400000000000002E-4</v>
+        <v>5.7899999999999997E-10</v>
       </c>
       <c r="J108" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="B109">
-        <v>-2.2699999999999999E-4</v>
+        <v>3.0400000000000002E-4</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F109" t="s">
         <v>22</v>
@@ -3756,35 +3755,53 @@
         <v>0</v>
       </c>
       <c r="H109">
+        <v>3.0400000000000002E-4</v>
+      </c>
+      <c r="J109" t="s">
+        <v>86</v>
+      </c>
+      <c r="K109" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>85</v>
+      </c>
+      <c r="B110">
+        <v>-2.2699999999999999E-4</v>
+      </c>
+      <c r="C110" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" t="s">
+        <v>34</v>
+      </c>
+      <c r="F110" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
         <v>2.2699999999999999E-4</v>
       </c>
-      <c r="J109" t="s">
+      <c r="J110" t="s">
         <v>84</v>
       </c>
-      <c r="K109" t="s">
+      <c r="K110" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="1:16" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="6" t="s">
+    <row r="112" spans="1:16" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="8"/>
-      <c r="O111" s="8"/>
-      <c r="P111" s="8"/>
-    </row>
-    <row r="112" spans="1:16" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="7">
-        <v>1</v>
       </c>
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
@@ -3795,10 +3812,10 @@
     </row>
     <row r="113" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B113" s="7">
+        <v>1</v>
       </c>
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
@@ -3809,10 +3826,10 @@
     </row>
     <row r="114" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
@@ -3823,10 +3840,10 @@
     </row>
     <row r="115" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
@@ -3837,10 +3854,10 @@
     </row>
     <row r="116" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
@@ -3851,10 +3868,10 @@
     </row>
     <row r="117" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
@@ -3865,10 +3882,10 @@
     </row>
     <row r="118" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
@@ -3878,8 +3895,11 @@
       <c r="P118" s="8"/>
     </row>
     <row r="119" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="6" t="s">
-        <v>11</v>
+      <c r="A119" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
@@ -3890,238 +3910,195 @@
     </row>
     <row r="120" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="8"/>
+      <c r="L120" s="8"/>
+      <c r="M120" s="8"/>
+      <c r="N120" s="8"/>
+      <c r="O120" s="8"/>
+      <c r="P120" s="8"/>
+    </row>
+    <row r="121" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B121" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C121" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D121" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E121" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="F121" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G120" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H120" s="6" t="s">
+      <c r="G121" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H121" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I120" s="6" t="s">
+      <c r="I121" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J120" s="1" t="s">
+      <c r="J121" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K120" s="9" t="s">
+      <c r="K121" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L120" s="9" t="s">
+      <c r="L121" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M120" s="9" t="s">
+      <c r="M121" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N120" s="9" t="s">
+      <c r="N121" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O120" s="9" t="s">
+      <c r="O121" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P120" s="9" t="s">
+      <c r="P121" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q120" s="1" t="s">
+      <c r="Q121" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R120" s="1" t="s">
+      <c r="R121" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S120" s="6" t="s">
+      <c r="S121" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T120" s="1" t="s">
+      <c r="T121" s="1" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B121" s="7">
-        <v>1</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
-      <c r="N121" s="8"/>
-      <c r="O121" s="8"/>
-      <c r="P121" s="8"/>
-      <c r="T121" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="122" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B122" s="7">
+        <v>1</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K122" s="8"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="8"/>
+      <c r="N122" s="8"/>
+      <c r="O122" s="8"/>
+      <c r="P122" s="8"/>
+      <c r="T122" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B122" s="7">
+      <c r="B123" s="7">
         <f>0.000000283/0.717</f>
         <v>3.9470013947001396E-7</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D123" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="F123" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G122" s="7" t="s">
+      <c r="G123" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I122" s="7">
-        <v>2</v>
-      </c>
-      <c r="J122">
-        <f t="shared" ref="J122:J125" si="0">LN(B122)</f>
+      <c r="I123" s="7">
+        <v>2</v>
+      </c>
+      <c r="J123">
+        <f t="shared" ref="J123:J126" si="0">LN(B123)</f>
         <v>-14.745139500920656</v>
       </c>
-      <c r="K122" s="3">
+      <c r="K123" s="3">
         <v>1.05</v>
       </c>
-      <c r="L122" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M122" s="3">
+      <c r="L123" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M123" s="3">
         <v>1.03</v>
       </c>
-      <c r="N122" s="3">
+      <c r="N123" s="3">
         <v>1.01</v>
       </c>
-      <c r="O122" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P122" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q122">
+      <c r="O123" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P123" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q123">
         <v>3</v>
       </c>
-      <c r="R122">
-        <f t="shared" ref="R122:R125" si="1">LN(SQRT(EXP(
+      <c r="R123">
+        <f t="shared" ref="R123:R126" si="1">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K122),2)
-+POWER(LN(L122),2)
-+POWER(LN(M122),2)
-+POWER(LN(N122),2)
-+POWER(LN(O122),2)
-+POWER(LN(P122),2)
-+POWER(LN(Q122),2)
++POWER(LN(K123),2)
++POWER(LN(L123),2)
++POWER(LN(M123),2)
++POWER(LN(N123),2)
++POWER(LN(O123),2)
++POWER(LN(P123),2)
++POWER(LN(Q123),2)
 )
 )))</f>
         <v>0.57228175382009561</v>
       </c>
     </row>
-    <row r="123" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="7" t="s">
+    <row r="124" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B123" s="8">
+      <c r="B124" s="8">
         <f>1.972/0.717</f>
         <v>2.7503486750348678</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C124" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D123" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123" s="7" t="s">
+      <c r="D124" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G123" s="7" t="s">
+      <c r="G124" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I123" s="7">
-        <v>2</v>
-      </c>
-      <c r="J123">
+      <c r="I124" s="7">
+        <v>2</v>
+      </c>
+      <c r="J124">
         <f t="shared" si="0"/>
         <v>1.0117276945629605</v>
-      </c>
-      <c r="K123" s="3">
-        <v>1.05</v>
-      </c>
-      <c r="L123" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M123" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="N123" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="O123" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P123" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q123">
-        <v>1.05</v>
-      </c>
-      <c r="R123">
-        <f t="shared" si="1"/>
-        <v>0.1623708273741902</v>
-      </c>
-      <c r="S123" s="10"/>
-    </row>
-    <row r="124" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B124" s="8">
-        <f>(4*0.0893)/0.717</f>
-        <v>0.49818688981868903</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I124" s="7">
-        <v>2</v>
-      </c>
-      <c r="J124">
-        <f t="shared" si="0"/>
-        <v>-0.69677999159727633</v>
       </c>
       <c r="K124" s="3">
         <v>1.05</v>
@@ -4151,12 +4128,12 @@
       <c r="S124" s="10"/>
     </row>
     <row r="125" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B125" s="7">
-        <f>0.00006/0.717</f>
-        <v>8.3682008368200843E-5</v>
+      <c r="A125" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B125" s="8">
+        <f>(4*0.0893)/0.717</f>
+        <v>0.49818688981868903</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>9</v>
@@ -4168,14 +4145,14 @@
         <v>22</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="I125" s="7">
         <v>2</v>
       </c>
       <c r="J125">
         <f t="shared" si="0"/>
-        <v>-9.3884865573596574</v>
+        <v>-0.69677999159727633</v>
       </c>
       <c r="K125" s="3">
         <v>1.05</v>
@@ -4202,23 +4179,63 @@
         <f t="shared" si="1"/>
         <v>0.1623708273741902</v>
       </c>
+      <c r="S125" s="10"/>
     </row>
     <row r="126" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B126" s="11"/>
-      <c r="K126" s="8"/>
-      <c r="L126" s="8"/>
-      <c r="M126" s="8"/>
-      <c r="N126" s="8"/>
-      <c r="O126" s="8"/>
-      <c r="P126" s="8"/>
+      <c r="A126" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" s="7">
+        <f>0.00006/0.717</f>
+        <v>8.3682008368200843E-5</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I126" s="7">
+        <v>2</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="0"/>
+        <v>-9.3884865573596574</v>
+      </c>
+      <c r="K126" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="L126" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M126" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N126" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O126" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P126" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q126">
+        <v>1.05</v>
+      </c>
+      <c r="R126">
+        <f t="shared" si="1"/>
+        <v>0.1623708273741902</v>
+      </c>
     </row>
     <row r="127" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="B127" s="11"/>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
       <c r="M127" s="8"/>
@@ -4227,11 +4244,11 @@
       <c r="P127" s="8"/>
     </row>
     <row r="128" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B128" s="7">
-        <v>1</v>
+      <c r="A128" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
@@ -4242,10 +4259,10 @@
     </row>
     <row r="129" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B129" s="7">
+        <v>1</v>
       </c>
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
@@ -4256,10 +4273,10 @@
     </row>
     <row r="130" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
@@ -4270,10 +4287,10 @@
     </row>
     <row r="131" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
@@ -4284,10 +4301,10 @@
     </row>
     <row r="132" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
@@ -4298,10 +4315,10 @@
     </row>
     <row r="133" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
@@ -4312,10 +4329,10 @@
     </row>
     <row r="134" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
@@ -4325,8 +4342,11 @@
       <c r="P134" s="8"/>
     </row>
     <row r="135" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A135" s="6" t="s">
-        <v>11</v>
+      <c r="A135" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
@@ -4337,238 +4357,195 @@
     </row>
     <row r="136" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="8"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="8"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="8"/>
+      <c r="P136" s="8"/>
+    </row>
+    <row r="137" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B137" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C137" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="D137" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E136" s="6" t="s">
+      <c r="E137" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F136" s="6" t="s">
+      <c r="F137" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G136" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H136" s="6" t="s">
+      <c r="G137" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H137" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I136" s="6" t="s">
+      <c r="I137" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J136" s="1" t="s">
+      <c r="J137" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K136" s="9" t="s">
+      <c r="K137" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L136" s="9" t="s">
+      <c r="L137" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M136" s="9" t="s">
+      <c r="M137" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N136" s="9" t="s">
+      <c r="N137" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O136" s="9" t="s">
+      <c r="O137" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P136" s="9" t="s">
+      <c r="P137" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q136" s="1" t="s">
+      <c r="Q137" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R136" s="1" t="s">
+      <c r="R137" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S136" s="6" t="s">
+      <c r="S137" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T136" s="1" t="s">
+      <c r="T137" s="1" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A137" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B137" s="7">
-        <v>1</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K137" s="8"/>
-      <c r="L137" s="8"/>
-      <c r="M137" s="8"/>
-      <c r="N137" s="8"/>
-      <c r="O137" s="8"/>
-      <c r="P137" s="8"/>
-      <c r="T137" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="138" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B138" s="7">
+        <v>1</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K138" s="8"/>
+      <c r="L138" s="8"/>
+      <c r="M138" s="8"/>
+      <c r="N138" s="8"/>
+      <c r="O138" s="8"/>
+      <c r="P138" s="8"/>
+      <c r="T138" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B138" s="7">
+      <c r="B139" s="7">
         <f>0.000000283/0.717</f>
         <v>3.9470013947001396E-7</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C139" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D139" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F138" s="7" t="s">
+      <c r="F139" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G138" s="7" t="s">
+      <c r="G139" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I138" s="7">
-        <v>2</v>
-      </c>
-      <c r="J138">
-        <f t="shared" ref="J138:J141" si="2">LN(B138)</f>
+      <c r="I139" s="7">
+        <v>2</v>
+      </c>
+      <c r="J139">
+        <f t="shared" ref="J139:J142" si="2">LN(B139)</f>
         <v>-14.745139500920656</v>
       </c>
-      <c r="K138" s="3">
+      <c r="K139" s="3">
         <v>1.05</v>
       </c>
-      <c r="L138" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M138" s="3">
+      <c r="L139" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M139" s="3">
         <v>1.03</v>
       </c>
-      <c r="N138" s="3">
+      <c r="N139" s="3">
         <v>1.01</v>
       </c>
-      <c r="O138" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P138" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q138">
+      <c r="O139" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P139" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q139">
         <v>3</v>
       </c>
-      <c r="R138">
-        <f t="shared" ref="R138:R141" si="3">LN(SQRT(EXP(
+      <c r="R139">
+        <f t="shared" ref="R139:R142" si="3">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K138),2)
-+POWER(LN(L138),2)
-+POWER(LN(M138),2)
-+POWER(LN(N138),2)
-+POWER(LN(O138),2)
-+POWER(LN(P138),2)
-+POWER(LN(Q138),2)
++POWER(LN(K139),2)
++POWER(LN(L139),2)
++POWER(LN(M139),2)
++POWER(LN(N139),2)
++POWER(LN(O139),2)
++POWER(LN(P139),2)
++POWER(LN(Q139),2)
 )
 )))</f>
         <v>0.57228175382009561</v>
       </c>
     </row>
-    <row r="139" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139" s="7" t="s">
+    <row r="140" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A140" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B139" s="7">
+      <c r="B140" s="7">
         <f>1.972/0.717</f>
         <v>2.7503486750348678</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C140" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D139" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F139" s="7" t="s">
+      <c r="D140" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F140" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G139" s="7" t="s">
+      <c r="G140" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I139" s="7">
-        <v>2</v>
-      </c>
-      <c r="J139">
+      <c r="I140" s="7">
+        <v>2</v>
+      </c>
+      <c r="J140">
         <f t="shared" si="2"/>
         <v>1.0117276945629605</v>
-      </c>
-      <c r="K139" s="3">
-        <v>1.05</v>
-      </c>
-      <c r="L139" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M139" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="N139" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="O139" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P139" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q139">
-        <v>1.05</v>
-      </c>
-      <c r="R139">
-        <f t="shared" si="3"/>
-        <v>0.1623708273741902</v>
-      </c>
-      <c r="S139" s="10"/>
-    </row>
-    <row r="140" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A140" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B140" s="7">
-        <f>(4*0.0893)/0.717</f>
-        <v>0.49818688981868903</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I140" s="7">
-        <v>2</v>
-      </c>
-      <c r="J140">
-        <f t="shared" si="2"/>
-        <v>-0.69677999159727633</v>
       </c>
       <c r="K140" s="3">
         <v>1.05</v>
@@ -4598,12 +4575,12 @@
       <c r="S140" s="10"/>
     </row>
     <row r="141" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141" s="7" t="s">
-        <v>127</v>
+      <c r="A141" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="B141" s="7">
-        <f>0.00006/0.717</f>
-        <v>8.3682008368200843E-5</v>
+        <f>(4*0.0893)/0.717</f>
+        <v>0.49818688981868903</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>9</v>
@@ -4615,14 +4592,14 @@
         <v>22</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="I141" s="7">
         <v>2</v>
       </c>
       <c r="J141">
         <f t="shared" si="2"/>
-        <v>-9.3884865573596574</v>
+        <v>-0.69677999159727633</v>
       </c>
       <c r="K141" s="3">
         <v>1.05</v>
@@ -4649,22 +4626,62 @@
         <f t="shared" si="3"/>
         <v>0.1623708273741902</v>
       </c>
+      <c r="S141" s="10"/>
     </row>
     <row r="142" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K142" s="8"/>
-      <c r="L142" s="8"/>
-      <c r="M142" s="8"/>
-      <c r="N142" s="8"/>
-      <c r="O142" s="8"/>
-      <c r="P142" s="8"/>
+      <c r="A142" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B142" s="7">
+        <f>0.00006/0.717</f>
+        <v>8.3682008368200843E-5</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I142" s="7">
+        <v>2</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="2"/>
+        <v>-9.3884865573596574</v>
+      </c>
+      <c r="K142" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="L142" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M142" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N142" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O142" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P142" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q142">
+        <v>1.05</v>
+      </c>
+      <c r="R142">
+        <f t="shared" si="3"/>
+        <v>0.1623708273741902</v>
+      </c>
     </row>
     <row r="143" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A143" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
       <c r="M143" s="8"/>
@@ -4673,11 +4690,11 @@
       <c r="P143" s="8"/>
     </row>
     <row r="144" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B144" s="7">
-        <v>1</v>
+      <c r="A144" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
@@ -4688,10 +4705,10 @@
     </row>
     <row r="145" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B145" s="7">
+        <v>1</v>
       </c>
       <c r="K145" s="8"/>
       <c r="L145" s="8"/>
@@ -4702,10 +4719,10 @@
     </row>
     <row r="146" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K146" s="8"/>
       <c r="L146" s="8"/>
@@ -4716,10 +4733,10 @@
     </row>
     <row r="147" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K147" s="8"/>
       <c r="L147" s="8"/>
@@ -4730,10 +4747,10 @@
     </row>
     <row r="148" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
@@ -4744,10 +4761,10 @@
     </row>
     <row r="149" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
@@ -4758,10 +4775,10 @@
     </row>
     <row r="150" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
@@ -4771,8 +4788,11 @@
       <c r="P150" s="8"/>
     </row>
     <row r="151" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151" s="6" t="s">
-        <v>11</v>
+      <c r="A151" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="K151" s="8"/>
       <c r="L151" s="8"/>
@@ -4783,239 +4803,196 @@
     </row>
     <row r="152" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="8"/>
+      <c r="L152" s="8"/>
+      <c r="M152" s="8"/>
+      <c r="N152" s="8"/>
+      <c r="O152" s="8"/>
+      <c r="P152" s="8"/>
+    </row>
+    <row r="153" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B153" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C153" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D152" s="6" t="s">
+      <c r="D153" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="6" t="s">
+      <c r="E153" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F152" s="6" t="s">
+      <c r="F153" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G152" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H152" s="6" t="s">
+      <c r="G153" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H153" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I152" s="6" t="s">
+      <c r="I153" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J152" s="1" t="s">
+      <c r="J153" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K152" s="9" t="s">
+      <c r="K153" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L152" s="9" t="s">
+      <c r="L153" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M152" s="9" t="s">
+      <c r="M153" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N152" s="9" t="s">
+      <c r="N153" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O152" s="9" t="s">
+      <c r="O153" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P152" s="9" t="s">
+      <c r="P153" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q152" s="1" t="s">
+      <c r="Q153" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R152" s="1" t="s">
+      <c r="R153" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S152" s="6" t="s">
+      <c r="S153" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T152" s="1" t="s">
+      <c r="T153" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="153" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="7" t="str">
-        <f>B143</f>
+    <row r="154" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A154" s="7" t="str">
+        <f>B144</f>
         <v>methane, from electrochemical methanation, with carbon from municipal waste incineration plant</v>
       </c>
-      <c r="B153" s="7">
+      <c r="B154" s="7">
         <v>1</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C154" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D153" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F153" s="7" t="s">
+      <c r="D154" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F154" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G153" s="7" t="s">
+      <c r="G154" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K153" s="8"/>
-      <c r="L153" s="8"/>
-      <c r="M153" s="8"/>
-      <c r="N153" s="8"/>
-      <c r="O153" s="8"/>
-      <c r="P153" s="8"/>
-      <c r="T153" s="7" t="s">
+      <c r="K154" s="8"/>
+      <c r="L154" s="8"/>
+      <c r="M154" s="8"/>
+      <c r="N154" s="8"/>
+      <c r="O154" s="8"/>
+      <c r="P154" s="8"/>
+      <c r="T154" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="154" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A154" s="7" t="s">
+    <row r="155" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B154" s="7">
+      <c r="B155" s="7">
         <f>0.000000283/0.717</f>
         <v>3.9470013947001396E-7</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C155" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="D155" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F154" s="7" t="s">
+      <c r="F155" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G154" s="7" t="s">
+      <c r="G155" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I154" s="7">
-        <v>2</v>
-      </c>
-      <c r="J154">
-        <f t="shared" ref="J154:J157" si="4">LN(B154)</f>
+      <c r="I155" s="7">
+        <v>2</v>
+      </c>
+      <c r="J155">
+        <f t="shared" ref="J155:J158" si="4">LN(B155)</f>
         <v>-14.745139500920656</v>
       </c>
-      <c r="K154" s="3">
+      <c r="K155" s="3">
         <v>1.05</v>
       </c>
-      <c r="L154" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M154" s="3">
+      <c r="L155" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M155" s="3">
         <v>1.03</v>
       </c>
-      <c r="N154" s="3">
+      <c r="N155" s="3">
         <v>1.01</v>
       </c>
-      <c r="O154" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P154" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q154">
+      <c r="O155" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P155" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q155">
         <v>3</v>
       </c>
-      <c r="R154">
-        <f t="shared" ref="R154:R157" si="5">LN(SQRT(EXP(
+      <c r="R155">
+        <f t="shared" ref="R155:R158" si="5">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K154),2)
-+POWER(LN(L154),2)
-+POWER(LN(M154),2)
-+POWER(LN(N154),2)
-+POWER(LN(O154),2)
-+POWER(LN(P154),2)
-+POWER(LN(Q154),2)
++POWER(LN(K155),2)
++POWER(LN(L155),2)
++POWER(LN(M155),2)
++POWER(LN(N155),2)
++POWER(LN(O155),2)
++POWER(LN(P155),2)
++POWER(LN(Q155),2)
 )
 )))</f>
         <v>0.57228175382009561</v>
       </c>
     </row>
-    <row r="155" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A155" s="7" t="s">
+    <row r="156" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A156" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B155" s="7">
+      <c r="B156" s="7">
         <f>1.972/0.717</f>
         <v>2.7503486750348678</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C156" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D155" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F155" s="7" t="s">
+      <c r="D156" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F156" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G155" s="7" t="s">
+      <c r="G156" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I155" s="7">
-        <v>2</v>
-      </c>
-      <c r="J155">
+      <c r="I156" s="7">
+        <v>2</v>
+      </c>
+      <c r="J156">
         <f t="shared" si="4"/>
         <v>1.0117276945629605</v>
-      </c>
-      <c r="K155" s="3">
-        <v>1.05</v>
-      </c>
-      <c r="L155" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M155" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="N155" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="O155" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P155" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q155">
-        <v>1.05</v>
-      </c>
-      <c r="R155">
-        <f t="shared" si="5"/>
-        <v>0.1623708273741902</v>
-      </c>
-      <c r="S155" s="10"/>
-    </row>
-    <row r="156" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A156" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B156" s="7">
-        <f>(4*0.0893)/0.717</f>
-        <v>0.49818688981868903</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I156" s="7">
-        <v>2</v>
-      </c>
-      <c r="J156">
-        <f t="shared" si="4"/>
-        <v>-0.69677999159727633</v>
       </c>
       <c r="K156" s="3">
         <v>1.05</v>
@@ -5045,12 +5022,12 @@
       <c r="S156" s="10"/>
     </row>
     <row r="157" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A157" s="7" t="s">
-        <v>127</v>
+      <c r="A157" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="B157" s="7">
-        <f>0.00006/0.717</f>
-        <v>8.3682008368200843E-5</v>
+        <f>(4*0.0893)/0.717</f>
+        <v>0.49818688981868903</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>9</v>
@@ -5062,14 +5039,14 @@
         <v>22</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="I157" s="7">
         <v>2</v>
       </c>
       <c r="J157">
         <f t="shared" si="4"/>
-        <v>-9.3884865573596574</v>
+        <v>-0.69677999159727633</v>
       </c>
       <c r="K157" s="3">
         <v>1.05</v>
@@ -5096,22 +5073,62 @@
         <f t="shared" si="5"/>
         <v>0.1623708273741902</v>
       </c>
+      <c r="S157" s="10"/>
     </row>
     <row r="158" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K158" s="8"/>
-      <c r="L158" s="8"/>
-      <c r="M158" s="8"/>
-      <c r="N158" s="8"/>
-      <c r="O158" s="8"/>
-      <c r="P158" s="8"/>
+      <c r="A158" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B158" s="7">
+        <f>0.00006/0.717</f>
+        <v>8.3682008368200843E-5</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I158" s="7">
+        <v>2</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="4"/>
+        <v>-9.3884865573596574</v>
+      </c>
+      <c r="K158" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="L158" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M158" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N158" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O158" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P158" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q158">
+        <v>1.05</v>
+      </c>
+      <c r="R158">
+        <f t="shared" si="5"/>
+        <v>0.1623708273741902</v>
+      </c>
     </row>
     <row r="159" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
       <c r="M159" s="8"/>
@@ -5120,11 +5137,11 @@
       <c r="P159" s="8"/>
     </row>
     <row r="160" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B160" s="7">
-        <v>1</v>
+      <c r="A160" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
@@ -5135,10 +5152,10 @@
     </row>
     <row r="161" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="B161" s="7">
+        <v>1</v>
       </c>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
@@ -5149,10 +5166,10 @@
     </row>
     <row r="162" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
@@ -5163,10 +5180,10 @@
     </row>
     <row r="163" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
@@ -5177,10 +5194,10 @@
     </row>
     <row r="164" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K164" s="8"/>
       <c r="L164" s="8"/>
@@ -5191,10 +5208,10 @@
     </row>
     <row r="165" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
@@ -5205,10 +5222,10 @@
     </row>
     <row r="166" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B166" s="12" t="s">
-        <v>135</v>
+        <v>10</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
@@ -5218,8 +5235,11 @@
       <c r="P166" s="8"/>
     </row>
     <row r="167" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" s="6" t="s">
-        <v>11</v>
+      <c r="A167" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="K167" s="8"/>
       <c r="L167" s="8"/>
@@ -5230,103 +5250,84 @@
     </row>
     <row r="168" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="8"/>
+      <c r="L168" s="8"/>
+      <c r="M168" s="8"/>
+      <c r="N168" s="8"/>
+      <c r="O168" s="8"/>
+      <c r="P168" s="8"/>
+    </row>
+    <row r="169" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A169" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B169" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C169" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D168" s="6" t="s">
+      <c r="D169" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E168" s="6" t="s">
+      <c r="E169" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F168" s="6" t="s">
+      <c r="F169" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G168" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H168" s="6" t="s">
+      <c r="G169" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H169" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I168" s="6" t="s">
+      <c r="I169" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J168" s="1" t="s">
+      <c r="J169" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K168" s="9" t="s">
+      <c r="K169" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L168" s="9" t="s">
+      <c r="L169" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M168" s="9" t="s">
+      <c r="M169" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N168" s="9" t="s">
+      <c r="N169" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O168" s="9" t="s">
+      <c r="O169" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P168" s="9" t="s">
+      <c r="P169" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q168" s="1" t="s">
+      <c r="Q169" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R168" s="1" t="s">
+      <c r="R169" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S168" s="6" t="s">
+      <c r="S169" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T168" s="1" t="s">
+      <c r="T169" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="169" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A169" s="7" t="str">
-        <f>B159</f>
+    <row r="170" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A170" s="7" t="str">
+        <f>B160</f>
         <v>methane, from biological methanation, with carbon from atmosphere</v>
       </c>
-      <c r="B169" s="7">
+      <c r="B170" s="7">
         <v>1</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G169" s="7" t="str">
-        <f>B161</f>
-        <v>methane, from biological methanation</v>
-      </c>
-      <c r="K169" s="8"/>
-      <c r="L169" s="8"/>
-      <c r="M169" s="8"/>
-      <c r="N169" s="8"/>
-      <c r="O169" s="8"/>
-      <c r="P169" s="8"/>
-      <c r="T169" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="170" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A170" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B170" s="7">
-        <v>2.75</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>9</v>
@@ -5335,136 +5336,110 @@
         <v>7</v>
       </c>
       <c r="F170" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G170" s="7" t="str">
+        <f>B162</f>
+        <v>methane, from biological methanation</v>
+      </c>
+      <c r="K170" s="8"/>
+      <c r="L170" s="8"/>
+      <c r="M170" s="8"/>
+      <c r="N170" s="8"/>
+      <c r="O170" s="8"/>
+      <c r="P170" s="8"/>
+      <c r="T170" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A171" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B171" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F171" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G170" s="7" t="s">
+      <c r="G171" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I170" s="7">
-        <v>2</v>
-      </c>
-      <c r="J170">
-        <f>LN(B170)</f>
+      <c r="I171" s="7">
+        <v>2</v>
+      </c>
+      <c r="J171">
+        <f>LN(B171)</f>
         <v>1.0116009116784799</v>
       </c>
-      <c r="K170" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L170" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M170" s="3">
+      <c r="K171" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L171" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M171" s="3">
         <v>1.03</v>
       </c>
-      <c r="N170" s="3">
+      <c r="N171" s="3">
         <v>1.01</v>
       </c>
-      <c r="O170" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P170" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q170">
+      <c r="O171" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P171" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q171">
         <v>1.05</v>
       </c>
-      <c r="R170">
-        <f t="shared" ref="R170:R173" si="6">LN(SQRT(EXP(
+      <c r="R171">
+        <f t="shared" ref="R171:R174" si="6">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K170),2)
-+POWER(LN(L170),2)
-+POWER(LN(M170),2)
-+POWER(LN(N170),2)
-+POWER(LN(O170),2)
-+POWER(LN(P170),2)
-+POWER(LN(Q170),2)
++POWER(LN(K171),2)
++POWER(LN(L171),2)
++POWER(LN(M171),2)
++POWER(LN(N171),2)
++POWER(LN(O171),2)
++POWER(LN(P171),2)
++POWER(LN(Q171),2)
 )
 )))</f>
         <v>0.18460621081155912</v>
       </c>
-      <c r="S170" s="10"/>
-    </row>
-    <row r="171" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A171" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B171" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G171" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I171" s="7">
-        <v>2</v>
-      </c>
-      <c r="J171">
-        <f>LN(B171)</f>
-        <v>-0.69314718055994529</v>
-      </c>
-      <c r="K171" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L171" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M171" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="N171" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="O171" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P171" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q171">
-        <v>1.05</v>
-      </c>
-      <c r="R171">
-        <f t="shared" si="6"/>
-        <v>0.18460621081155912</v>
-      </c>
       <c r="S171" s="10"/>
     </row>
     <row r="172" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B172" s="7">
-        <v>1.55</v>
+        <v>0.5</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F172" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H172" s="7" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="I172" s="7">
         <v>2</v>
       </c>
       <c r="J172">
         <f>LN(B172)</f>
-        <v>0.43825493093115531</v>
+        <v>-0.69314718055994529</v>
       </c>
       <c r="K172" s="3">
         <v>1.2</v>
@@ -5493,35 +5468,34 @@
       </c>
       <c r="S172" s="10"/>
     </row>
-    <row r="173" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A173" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B173" s="14">
-        <f>0.0833/51.3</f>
-        <v>1.6237816764132554E-3</v>
+    <row r="173" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A173" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B173" s="7">
+        <v>1.55</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F173" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I173" s="7">
         <v>2</v>
       </c>
       <c r="J173">
         <f>LN(B173)</f>
-        <v>-6.422997481986064</v>
+        <v>0.43825493093115531</v>
       </c>
       <c r="K173" s="3">
         <v>1.2</v>
@@ -5550,90 +5524,133 @@
       </c>
       <c r="S173" s="10"/>
     </row>
-    <row r="174" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A174" s="7" t="s">
+    <row r="174" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A174" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B174" s="14">
+        <f>0.0833/51.3</f>
+        <v>1.6237816764132554E-3</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I174" s="7">
+        <v>2</v>
+      </c>
+      <c r="J174">
+        <f>LN(B174)</f>
+        <v>-6.422997481986064</v>
+      </c>
+      <c r="K174" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L174" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M174" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N174" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O174" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P174" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q174">
+        <v>1.05</v>
+      </c>
+      <c r="R174">
+        <f t="shared" si="6"/>
+        <v>0.18460621081155912</v>
+      </c>
+      <c r="S174" s="10"/>
+    </row>
+    <row r="175" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A175" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B174" s="11">
+      <c r="B175" s="11">
         <f>(34/51.3)*-1</f>
         <v>-0.66276803118908389</v>
       </c>
-      <c r="C174" s="7" t="s">
+      <c r="C175" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D174" s="7" t="s">
+      <c r="D175" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F174" s="7" t="s">
+      <c r="F175" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G174" s="7" t="s">
+      <c r="G175" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H174" s="7" t="s">
+      <c r="H175" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="I174" s="7">
-        <v>2</v>
-      </c>
-      <c r="J174">
-        <f>LN(B174*-1)</f>
+      <c r="I175" s="7">
+        <v>2</v>
+      </c>
+      <c r="J175">
+        <f>LN(B175*-1)</f>
         <v>-0.41133022756056237</v>
       </c>
-      <c r="K174" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L174" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M174" s="3">
+      <c r="K175" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L175" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M175" s="3">
         <v>1.03</v>
       </c>
-      <c r="N174" s="3">
+      <c r="N175" s="3">
         <v>1.01</v>
       </c>
-      <c r="O174" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P174" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q174">
+      <c r="O175" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P175" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q175">
         <v>1.05</v>
       </c>
-      <c r="R174">
+      <c r="R175">
         <f>LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K174),2)
-+POWER(LN(L174),2)
-+POWER(LN(M174),2)
-+POWER(LN(N174),2)
-+POWER(LN(O174),2)
-+POWER(LN(P174),2)
-+POWER(LN(Q174),2)
++POWER(LN(K175),2)
++POWER(LN(L175),2)
++POWER(LN(M175),2)
++POWER(LN(N175),2)
++POWER(LN(O175),2)
++POWER(LN(P175),2)
++POWER(LN(Q175),2)
 )
 )))</f>
         <v>0.18460621081155912</v>
       </c>
-      <c r="S174" s="7" t="b">
+      <c r="S175" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K175" s="8"/>
-      <c r="L175" s="8"/>
-      <c r="M175" s="8"/>
-      <c r="N175" s="8"/>
-      <c r="O175" s="8"/>
-      <c r="P175" s="8"/>
-    </row>
     <row r="176" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A176" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
       <c r="M176" s="8"/>
@@ -5642,11 +5659,11 @@
       <c r="P176" s="8"/>
     </row>
     <row r="177" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B177" s="7">
-        <v>1</v>
+      <c r="A177" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="K177" s="8"/>
       <c r="L177" s="8"/>
@@ -5657,10 +5674,10 @@
     </row>
     <row r="178" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="B178" s="7">
+        <v>1</v>
       </c>
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
@@ -5671,10 +5688,10 @@
     </row>
     <row r="179" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
@@ -5685,10 +5702,10 @@
     </row>
     <row r="180" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K180" s="8"/>
       <c r="L180" s="8"/>
@@ -5699,10 +5716,10 @@
     </row>
     <row r="181" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K181" s="8"/>
       <c r="L181" s="8"/>
@@ -5713,10 +5730,10 @@
     </row>
     <row r="182" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
@@ -5727,10 +5744,10 @@
     </row>
     <row r="183" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B183" s="12" t="s">
-        <v>135</v>
+        <v>10</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
@@ -5740,8 +5757,11 @@
       <c r="P183" s="8"/>
     </row>
     <row r="184" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A184" s="6" t="s">
-        <v>11</v>
+      <c r="A184" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="K184" s="8"/>
       <c r="L184" s="8"/>
@@ -5752,103 +5772,84 @@
     </row>
     <row r="185" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="8"/>
+      <c r="L185" s="8"/>
+      <c r="M185" s="8"/>
+      <c r="N185" s="8"/>
+      <c r="O185" s="8"/>
+      <c r="P185" s="8"/>
+    </row>
+    <row r="186" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A186" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B186" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C185" s="6" t="s">
+      <c r="C186" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D185" s="6" t="s">
+      <c r="D186" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E185" s="6" t="s">
+      <c r="E186" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F185" s="6" t="s">
+      <c r="F186" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G185" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H185" s="6" t="s">
+      <c r="G186" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H186" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I185" s="6" t="s">
+      <c r="I186" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J185" s="1" t="s">
+      <c r="J186" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K185" s="9" t="s">
+      <c r="K186" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L185" s="9" t="s">
+      <c r="L186" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M185" s="9" t="s">
+      <c r="M186" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N185" s="9" t="s">
+      <c r="N186" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O185" s="9" t="s">
+      <c r="O186" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P185" s="9" t="s">
+      <c r="P186" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q185" s="1" t="s">
+      <c r="Q186" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R185" s="1" t="s">
+      <c r="R186" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S185" s="6" t="s">
+      <c r="S186" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T185" s="1" t="s">
+      <c r="T186" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="186" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="7" t="str">
-        <f>B176</f>
+    <row r="187" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A187" s="7" t="str">
+        <f>B177</f>
         <v>methane, from biological methanation, with carbon from cement plant</v>
       </c>
-      <c r="B186" s="7">
+      <c r="B187" s="7">
         <v>1</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F186" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G186" s="7" t="str">
-        <f>B178</f>
-        <v>methane, from biological methanation</v>
-      </c>
-      <c r="K186" s="8"/>
-      <c r="L186" s="8"/>
-      <c r="M186" s="8"/>
-      <c r="N186" s="8"/>
-      <c r="O186" s="8"/>
-      <c r="P186" s="8"/>
-      <c r="T186" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="187" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A187" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B187" s="7">
-        <v>2.75</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>9</v>
@@ -5857,136 +5858,110 @@
         <v>7</v>
       </c>
       <c r="F187" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G187" s="7" t="str">
+        <f>B179</f>
+        <v>methane, from biological methanation</v>
+      </c>
+      <c r="K187" s="8"/>
+      <c r="L187" s="8"/>
+      <c r="M187" s="8"/>
+      <c r="N187" s="8"/>
+      <c r="O187" s="8"/>
+      <c r="P187" s="8"/>
+      <c r="T187" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A188" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B188" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F188" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G187" s="7" t="s">
+      <c r="G188" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I187" s="7">
-        <v>2</v>
-      </c>
-      <c r="J187">
-        <f>LN(B187)</f>
+      <c r="I188" s="7">
+        <v>2</v>
+      </c>
+      <c r="J188">
+        <f>LN(B188)</f>
         <v>1.0116009116784799</v>
       </c>
-      <c r="K187" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L187" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M187" s="3">
+      <c r="K188" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L188" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M188" s="3">
         <v>1.03</v>
       </c>
-      <c r="N187" s="3">
+      <c r="N188" s="3">
         <v>1.01</v>
       </c>
-      <c r="O187" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P187" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q187">
+      <c r="O188" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P188" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q188">
         <v>1.05</v>
       </c>
-      <c r="R187">
-        <f t="shared" ref="R187:R190" si="7">LN(SQRT(EXP(
+      <c r="R188">
+        <f t="shared" ref="R188:R191" si="7">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K187),2)
-+POWER(LN(L187),2)
-+POWER(LN(M187),2)
-+POWER(LN(N187),2)
-+POWER(LN(O187),2)
-+POWER(LN(P187),2)
-+POWER(LN(Q187),2)
++POWER(LN(K188),2)
++POWER(LN(L188),2)
++POWER(LN(M188),2)
++POWER(LN(N188),2)
++POWER(LN(O188),2)
++POWER(LN(P188),2)
++POWER(LN(Q188),2)
 )
 )))</f>
         <v>0.18460621081155912</v>
       </c>
-      <c r="S187" s="10"/>
-    </row>
-    <row r="188" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A188" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B188" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F188" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G188" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I188" s="7">
-        <v>2</v>
-      </c>
-      <c r="J188">
-        <f>LN(B188)</f>
-        <v>-0.69314718055994529</v>
-      </c>
-      <c r="K188" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L188" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M188" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="N188" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="O188" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P188" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q188">
-        <v>1.05</v>
-      </c>
-      <c r="R188">
-        <f t="shared" si="7"/>
-        <v>0.18460621081155912</v>
-      </c>
       <c r="S188" s="10"/>
     </row>
     <row r="189" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B189" s="7">
-        <v>1.55</v>
+        <v>0.5</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F189" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H189" s="7" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="I189" s="7">
         <v>2</v>
       </c>
       <c r="J189">
         <f>LN(B189)</f>
-        <v>0.43825493093115531</v>
+        <v>-0.69314718055994529</v>
       </c>
       <c r="K189" s="3">
         <v>1.2</v>
@@ -6015,35 +5990,34 @@
       </c>
       <c r="S189" s="10"/>
     </row>
-    <row r="190" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A190" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B190" s="14">
-        <f>0.0833/51.3</f>
-        <v>1.6237816764132554E-3</v>
+    <row r="190" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A190" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B190" s="7">
+        <v>1.55</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F190" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I190" s="7">
         <v>2</v>
       </c>
       <c r="J190">
         <f>LN(B190)</f>
-        <v>-6.422997481986064</v>
+        <v>0.43825493093115531</v>
       </c>
       <c r="K190" s="3">
         <v>1.2</v>
@@ -6072,90 +6046,133 @@
       </c>
       <c r="S190" s="10"/>
     </row>
-    <row r="191" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A191" s="7" t="s">
+    <row r="191" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A191" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B191" s="14">
+        <f>0.0833/51.3</f>
+        <v>1.6237816764132554E-3</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G191" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H191" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I191" s="7">
+        <v>2</v>
+      </c>
+      <c r="J191">
+        <f>LN(B191)</f>
+        <v>-6.422997481986064</v>
+      </c>
+      <c r="K191" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L191" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M191" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N191" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O191" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P191" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q191">
+        <v>1.05</v>
+      </c>
+      <c r="R191">
+        <f t="shared" si="7"/>
+        <v>0.18460621081155912</v>
+      </c>
+      <c r="S191" s="10"/>
+    </row>
+    <row r="192" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A192" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B191" s="11">
+      <c r="B192" s="11">
         <f>(34/51.3)*-1</f>
         <v>-0.66276803118908389</v>
       </c>
-      <c r="C191" s="7" t="s">
+      <c r="C192" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D191" s="7" t="s">
+      <c r="D192" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F191" s="7" t="s">
+      <c r="F192" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G191" s="7" t="s">
+      <c r="G192" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H191" s="7" t="s">
+      <c r="H192" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="I191" s="7">
-        <v>2</v>
-      </c>
-      <c r="J191">
-        <f>LN(B191*-1)</f>
+      <c r="I192" s="7">
+        <v>2</v>
+      </c>
+      <c r="J192">
+        <f>LN(B192*-1)</f>
         <v>-0.41133022756056237</v>
       </c>
-      <c r="K191" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L191" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M191" s="3">
+      <c r="K192" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L192" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M192" s="3">
         <v>1.03</v>
       </c>
-      <c r="N191" s="3">
+      <c r="N192" s="3">
         <v>1.01</v>
       </c>
-      <c r="O191" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P191" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q191">
+      <c r="O192" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P192" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q192">
         <v>1.05</v>
       </c>
-      <c r="R191">
+      <c r="R192">
         <f>LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K191),2)
-+POWER(LN(L191),2)
-+POWER(LN(M191),2)
-+POWER(LN(N191),2)
-+POWER(LN(O191),2)
-+POWER(LN(P191),2)
-+POWER(LN(Q191),2)
++POWER(LN(K192),2)
++POWER(LN(L192),2)
++POWER(LN(M192),2)
++POWER(LN(N192),2)
++POWER(LN(O192),2)
++POWER(LN(P192),2)
++POWER(LN(Q192),2)
 )
 )))</f>
         <v>0.18460621081155912</v>
       </c>
-      <c r="S191" s="7" t="b">
+      <c r="S192" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K192" s="8"/>
-      <c r="L192" s="8"/>
-      <c r="M192" s="8"/>
-      <c r="N192" s="8"/>
-      <c r="O192" s="8"/>
-      <c r="P192" s="8"/>
-    </row>
     <row r="193" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A193" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="K193" s="8"/>
       <c r="L193" s="8"/>
       <c r="M193" s="8"/>
@@ -6164,11 +6181,11 @@
       <c r="P193" s="8"/>
     </row>
     <row r="194" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A194" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B194" s="7">
-        <v>1</v>
+      <c r="A194" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="K194" s="8"/>
       <c r="L194" s="8"/>
@@ -6179,10 +6196,10 @@
     </row>
     <row r="195" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="B195" s="7">
+        <v>1</v>
       </c>
       <c r="K195" s="8"/>
       <c r="L195" s="8"/>
@@ -6193,10 +6210,10 @@
     </row>
     <row r="196" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="K196" s="8"/>
       <c r="L196" s="8"/>
@@ -6207,10 +6224,10 @@
     </row>
     <row r="197" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K197" s="8"/>
       <c r="L197" s="8"/>
@@ -6221,10 +6238,10 @@
     </row>
     <row r="198" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K198" s="8"/>
       <c r="L198" s="8"/>
@@ -6235,10 +6252,10 @@
     </row>
     <row r="199" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="K199" s="8"/>
       <c r="L199" s="8"/>
@@ -6249,10 +6266,10 @@
     </row>
     <row r="200" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B200" s="12" t="s">
-        <v>135</v>
+        <v>10</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="K200" s="8"/>
       <c r="L200" s="8"/>
@@ -6262,8 +6279,11 @@
       <c r="P200" s="8"/>
     </row>
     <row r="201" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="6" t="s">
-        <v>11</v>
+      <c r="A201" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="K201" s="8"/>
       <c r="L201" s="8"/>
@@ -6274,103 +6294,84 @@
     </row>
     <row r="202" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="8"/>
+      <c r="L202" s="8"/>
+      <c r="M202" s="8"/>
+      <c r="N202" s="8"/>
+      <c r="O202" s="8"/>
+      <c r="P202" s="8"/>
+    </row>
+    <row r="203" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A203" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B203" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C202" s="6" t="s">
+      <c r="C203" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D202" s="6" t="s">
+      <c r="D203" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E202" s="6" t="s">
+      <c r="E203" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F202" s="6" t="s">
+      <c r="F203" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G202" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H202" s="6" t="s">
+      <c r="G203" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H203" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I202" s="6" t="s">
+      <c r="I203" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J202" s="1" t="s">
+      <c r="J203" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K202" s="9" t="s">
+      <c r="K203" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L202" s="9" t="s">
+      <c r="L203" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M202" s="9" t="s">
+      <c r="M203" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N202" s="9" t="s">
+      <c r="N203" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O202" s="9" t="s">
+      <c r="O203" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P202" s="9" t="s">
+      <c r="P203" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q202" s="1" t="s">
+      <c r="Q203" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R202" s="1" t="s">
+      <c r="R203" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S202" s="6" t="s">
+      <c r="S203" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T202" s="1" t="s">
+      <c r="T203" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="203" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A203" s="7" t="str">
-        <f>B193</f>
+    <row r="204" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A204" s="7" t="str">
+        <f>B194</f>
         <v>methane, from biological methanation, with carbon from municipal waste incineration plant</v>
       </c>
-      <c r="B203" s="7">
+      <c r="B204" s="7">
         <v>1</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D203" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F203" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G203" s="7" t="str">
-        <f>B195</f>
-        <v>methane, from biological methanation</v>
-      </c>
-      <c r="K203" s="8"/>
-      <c r="L203" s="8"/>
-      <c r="M203" s="8"/>
-      <c r="N203" s="8"/>
-      <c r="O203" s="8"/>
-      <c r="P203" s="8"/>
-      <c r="T203" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="204" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A204" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B204" s="7">
-        <v>2.75</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>9</v>
@@ -6379,136 +6380,110 @@
         <v>7</v>
       </c>
       <c r="F204" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G204" s="7" t="str">
+        <f>B196</f>
+        <v>methane, from biological methanation</v>
+      </c>
+      <c r="K204" s="8"/>
+      <c r="L204" s="8"/>
+      <c r="M204" s="8"/>
+      <c r="N204" s="8"/>
+      <c r="O204" s="8"/>
+      <c r="P204" s="8"/>
+      <c r="T204" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A205" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B205" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F205" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G204" s="7" t="s">
+      <c r="G205" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I204" s="7">
-        <v>2</v>
-      </c>
-      <c r="J204">
-        <f>LN(B204)</f>
+      <c r="I205" s="7">
+        <v>2</v>
+      </c>
+      <c r="J205">
+        <f>LN(B205)</f>
         <v>1.0116009116784799</v>
       </c>
-      <c r="K204" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L204" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M204" s="3">
+      <c r="K205" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L205" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M205" s="3">
         <v>1.03</v>
       </c>
-      <c r="N204" s="3">
+      <c r="N205" s="3">
         <v>1.01</v>
       </c>
-      <c r="O204" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P204" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q204">
+      <c r="O205" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P205" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q205">
         <v>1.05</v>
       </c>
-      <c r="R204">
-        <f t="shared" ref="R204:R207" si="8">LN(SQRT(EXP(
+      <c r="R205">
+        <f t="shared" ref="R205:R208" si="8">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K204),2)
-+POWER(LN(L204),2)
-+POWER(LN(M204),2)
-+POWER(LN(N204),2)
-+POWER(LN(O204),2)
-+POWER(LN(P204),2)
-+POWER(LN(Q204),2)
++POWER(LN(K205),2)
++POWER(LN(L205),2)
++POWER(LN(M205),2)
++POWER(LN(N205),2)
++POWER(LN(O205),2)
++POWER(LN(P205),2)
++POWER(LN(Q205),2)
 )
 )))</f>
         <v>0.18460621081155912</v>
       </c>
-      <c r="S204" s="10"/>
-    </row>
-    <row r="205" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A205" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B205" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F205" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G205" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I205" s="7">
-        <v>2</v>
-      </c>
-      <c r="J205">
-        <f>LN(B205)</f>
-        <v>-0.69314718055994529</v>
-      </c>
-      <c r="K205" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L205" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M205" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="N205" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="O205" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P205" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q205">
-        <v>1.05</v>
-      </c>
-      <c r="R205">
-        <f t="shared" si="8"/>
-        <v>0.18460621081155912</v>
-      </c>
       <c r="S205" s="10"/>
     </row>
     <row r="206" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B206" s="7">
-        <v>1.55</v>
+        <v>0.5</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F206" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H206" s="7" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="I206" s="7">
         <v>2</v>
       </c>
       <c r="J206">
         <f>LN(B206)</f>
-        <v>0.43825493093115531</v>
+        <v>-0.69314718055994529</v>
       </c>
       <c r="K206" s="3">
         <v>1.2</v>
@@ -6537,35 +6512,34 @@
       </c>
       <c r="S206" s="10"/>
     </row>
-    <row r="207" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A207" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B207" s="14">
-        <f>0.0833/51.3</f>
-        <v>1.6237816764132554E-3</v>
+    <row r="207" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A207" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B207" s="7">
+        <v>1.55</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F207" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I207" s="7">
         <v>2</v>
       </c>
       <c r="J207">
         <f>LN(B207)</f>
-        <v>-6.422997481986064</v>
+        <v>0.43825493093115531</v>
       </c>
       <c r="K207" s="3">
         <v>1.2</v>
@@ -6594,90 +6568,133 @@
       </c>
       <c r="S207" s="10"/>
     </row>
-    <row r="208" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A208" s="7" t="s">
+    <row r="208" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A208" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B208" s="14">
+        <f>0.0833/51.3</f>
+        <v>1.6237816764132554E-3</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F208" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G208" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H208" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I208" s="7">
+        <v>2</v>
+      </c>
+      <c r="J208">
+        <f>LN(B208)</f>
+        <v>-6.422997481986064</v>
+      </c>
+      <c r="K208" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L208" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M208" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N208" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O208" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P208" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q208">
+        <v>1.05</v>
+      </c>
+      <c r="R208">
+        <f t="shared" si="8"/>
+        <v>0.18460621081155912</v>
+      </c>
+      <c r="S208" s="10"/>
+    </row>
+    <row r="209" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A209" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B208" s="11">
+      <c r="B209" s="11">
         <f>(34/51.3)*-1</f>
         <v>-0.66276803118908389</v>
       </c>
-      <c r="C208" s="7" t="s">
+      <c r="C209" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D208" s="7" t="s">
+      <c r="D209" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F208" s="7" t="s">
+      <c r="F209" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G208" s="7" t="s">
+      <c r="G209" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H208" s="7" t="s">
+      <c r="H209" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="I208" s="7">
-        <v>2</v>
-      </c>
-      <c r="J208">
-        <f>LN(B208*-1)</f>
+      <c r="I209" s="7">
+        <v>2</v>
+      </c>
+      <c r="J209">
+        <f>LN(B209*-1)</f>
         <v>-0.41133022756056237</v>
       </c>
-      <c r="K208" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L208" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M208" s="3">
+      <c r="K209" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L209" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M209" s="3">
         <v>1.03</v>
       </c>
-      <c r="N208" s="3">
+      <c r="N209" s="3">
         <v>1.01</v>
       </c>
-      <c r="O208" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P208" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q208">
+      <c r="O209" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P209" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q209">
         <v>1.05</v>
       </c>
-      <c r="R208">
+      <c r="R209">
         <f>LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K208),2)
-+POWER(LN(L208),2)
-+POWER(LN(M208),2)
-+POWER(LN(N208),2)
-+POWER(LN(O208),2)
-+POWER(LN(P208),2)
-+POWER(LN(Q208),2)
++POWER(LN(K209),2)
++POWER(LN(L209),2)
++POWER(LN(M209),2)
++POWER(LN(N209),2)
++POWER(LN(O209),2)
++POWER(LN(P209),2)
++POWER(LN(Q209),2)
 )
 )))</f>
         <v>0.18460621081155912</v>
       </c>
-      <c r="S208" s="7" t="b">
+      <c r="S209" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K209" s="8"/>
-      <c r="L209" s="8"/>
-      <c r="M209" s="8"/>
-      <c r="N209" s="8"/>
-      <c r="O209" s="8"/>
-      <c r="P209" s="8"/>
-    </row>
     <row r="210" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A210" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B210" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="K210" s="8"/>
       <c r="L210" s="8"/>
       <c r="M210" s="8"/>
@@ -6686,11 +6703,11 @@
       <c r="P210" s="8"/>
     </row>
     <row r="211" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A211" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="7">
-        <v>1</v>
+      <c r="A211" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="K211" s="8"/>
       <c r="L211" s="8"/>
@@ -6701,10 +6718,10 @@
     </row>
     <row r="212" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B212" s="7" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="B212" s="7">
+        <v>1</v>
       </c>
       <c r="K212" s="8"/>
       <c r="L212" s="8"/>
@@ -6715,10 +6732,10 @@
     </row>
     <row r="213" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K213" s="8"/>
       <c r="L213" s="8"/>
@@ -6729,10 +6746,10 @@
     </row>
     <row r="214" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K214" s="8"/>
       <c r="L214" s="8"/>
@@ -6743,10 +6760,10 @@
     </row>
     <row r="215" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K215" s="8"/>
       <c r="L215" s="8"/>
@@ -6757,10 +6774,10 @@
     </row>
     <row r="216" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="K216" s="8"/>
       <c r="L216" s="8"/>
@@ -6770,8 +6787,11 @@
       <c r="P216" s="8"/>
     </row>
     <row r="217" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A217" s="6" t="s">
-        <v>11</v>
+      <c r="A217" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="K217" s="8"/>
       <c r="L217" s="8"/>
@@ -6782,224 +6802,221 @@
     </row>
     <row r="218" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="8"/>
+      <c r="L218" s="8"/>
+      <c r="M218" s="8"/>
+      <c r="N218" s="8"/>
+      <c r="O218" s="8"/>
+      <c r="P218" s="8"/>
+    </row>
+    <row r="219" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A219" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="B219" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C218" s="6" t="s">
+      <c r="C219" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D218" s="6" t="s">
+      <c r="D219" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E218" s="6" t="s">
+      <c r="E219" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F218" s="6" t="s">
+      <c r="F219" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G218" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H218" s="6" t="s">
+      <c r="G219" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H219" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I218" s="6" t="s">
+      <c r="I219" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J218" s="1" t="s">
+      <c r="J219" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K218" s="9" t="s">
+      <c r="K219" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L218" s="9" t="s">
+      <c r="L219" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M218" s="9" t="s">
+      <c r="M219" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N218" s="9" t="s">
+      <c r="N219" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O218" s="9" t="s">
+      <c r="O219" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P218" s="9" t="s">
+      <c r="P219" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q218" s="1" t="s">
+      <c r="Q219" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R218" s="1" t="s">
+      <c r="R219" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S218" s="6" t="s">
+      <c r="S219" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T218" s="1" t="s">
+      <c r="T219" s="1" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="219" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A219" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B219" s="7">
-        <v>1</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D219" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F219" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G219" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K219" s="8"/>
-      <c r="L219" s="8"/>
-      <c r="M219" s="8"/>
-      <c r="N219" s="8"/>
-      <c r="O219" s="8"/>
-      <c r="P219" s="8"/>
-      <c r="T219" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="220" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B220" s="7">
+        <v>1</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F220" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G220" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K220" s="8"/>
+      <c r="L220" s="8"/>
+      <c r="M220" s="8"/>
+      <c r="N220" s="8"/>
+      <c r="O220" s="8"/>
+      <c r="P220" s="8"/>
+      <c r="T220" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A221" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B220" s="7">
+      <c r="B221" s="7">
         <v>5940</v>
       </c>
-      <c r="C220" s="7" t="s">
+      <c r="C221" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D220" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F220" s="7" t="s">
+      <c r="D221" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F221" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G220" s="7" t="s">
+      <c r="G221" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="I220" s="7">
-        <v>2</v>
-      </c>
-      <c r="J220">
-        <f t="shared" ref="J220:J221" si="9">LN(B220)</f>
+      <c r="I221" s="7">
+        <v>2</v>
+      </c>
+      <c r="J221">
+        <f t="shared" ref="J221:J222" si="9">LN(B221)</f>
         <v>8.6894644123566902</v>
       </c>
-      <c r="K220" s="3">
+      <c r="K221" s="3">
         <v>1.5</v>
       </c>
-      <c r="L220" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M220" s="3">
+      <c r="L221" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M221" s="3">
         <v>1.5</v>
       </c>
-      <c r="N220" s="3">
+      <c r="N221" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O220" s="3">
-        <v>2</v>
-      </c>
-      <c r="P220" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q220">
+      <c r="O221" s="3">
+        <v>2</v>
+      </c>
+      <c r="P221" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q221">
         <v>1.05</v>
       </c>
-      <c r="R220">
-        <f t="shared" ref="R220:R221" si="10">LN(SQRT(EXP(
+      <c r="R221">
+        <f t="shared" ref="R221:R222" si="10">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K220),2)
-+POWER(LN(L220),2)
-+POWER(LN(M220),2)
-+POWER(LN(N220),2)
-+POWER(LN(O220),2)
-+POWER(LN(P220),2)
-+POWER(LN(Q220),2)
++POWER(LN(K221),2)
++POWER(LN(L221),2)
++POWER(LN(M221),2)
++POWER(LN(N221),2)
++POWER(LN(O221),2)
++POWER(LN(P221),2)
++POWER(LN(Q221),2)
 )
 )))</f>
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="221" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A221" s="7" t="s">
+    <row r="222" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A222" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B221" s="7">
+      <c r="B222" s="7">
         <v>660</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="C222" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D221" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F221" s="7" t="s">
+      <c r="D222" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F222" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G221" s="7" t="s">
+      <c r="G222" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="I221" s="7">
-        <v>2</v>
-      </c>
-      <c r="J221">
+      <c r="I222" s="7">
+        <v>2</v>
+      </c>
+      <c r="J222">
         <f t="shared" si="9"/>
         <v>6.4922398350204711</v>
       </c>
-      <c r="K221" s="3">
+      <c r="K222" s="3">
         <v>1.5</v>
       </c>
-      <c r="L221" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M221" s="3">
+      <c r="L222" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M222" s="3">
         <v>1.5</v>
       </c>
-      <c r="N221" s="3">
+      <c r="N222" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O221" s="3">
-        <v>2</v>
-      </c>
-      <c r="P221" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q221">
+      <c r="O222" s="3">
+        <v>2</v>
+      </c>
+      <c r="P222" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q222">
         <v>1.05</v>
       </c>
-      <c r="R221">
+      <c r="R222">
         <f t="shared" si="10"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="222" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K222" s="8"/>
-      <c r="L222" s="8"/>
-      <c r="M222" s="8"/>
-      <c r="N222" s="8"/>
-      <c r="O222" s="8"/>
-      <c r="P222" s="8"/>
-    </row>
     <row r="223" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A223" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="K223" s="8"/>
       <c r="L223" s="8"/>
       <c r="M223" s="8"/>
@@ -7008,11 +7025,11 @@
       <c r="P223" s="8"/>
     </row>
     <row r="224" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A224" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B224" s="7">
-        <v>1</v>
+      <c r="A224" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="K224" s="8"/>
       <c r="L224" s="8"/>
@@ -7023,10 +7040,10 @@
     </row>
     <row r="225" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>128</v>
+        <v>1</v>
+      </c>
+      <c r="B225" s="7">
+        <v>1</v>
       </c>
       <c r="K225" s="8"/>
       <c r="L225" s="8"/>
@@ -7037,10 +7054,10 @@
     </row>
     <row r="226" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="K226" s="8"/>
       <c r="L226" s="8"/>
@@ -7051,10 +7068,10 @@
     </row>
     <row r="227" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K227" s="8"/>
       <c r="L227" s="8"/>
@@ -7065,10 +7082,10 @@
     </row>
     <row r="228" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K228" s="8"/>
       <c r="L228" s="8"/>
@@ -7079,10 +7096,10 @@
     </row>
     <row r="229" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="K229" s="8"/>
       <c r="L229" s="8"/>
@@ -7092,8 +7109,11 @@
       <c r="P229" s="8"/>
     </row>
     <row r="230" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A230" s="6" t="s">
-        <v>11</v>
+      <c r="A230" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="K230" s="8"/>
       <c r="L230" s="8"/>
@@ -7104,223 +7124,234 @@
     </row>
     <row r="231" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="8"/>
+      <c r="L231" s="8"/>
+      <c r="M231" s="8"/>
+      <c r="N231" s="8"/>
+      <c r="O231" s="8"/>
+      <c r="P231" s="8"/>
+    </row>
+    <row r="232" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A232" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="B232" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C231" s="6" t="s">
+      <c r="C232" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D231" s="6" t="s">
+      <c r="D232" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E231" s="6" t="s">
+      <c r="E232" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F231" s="6" t="s">
+      <c r="F232" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G231" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H231" s="6" t="s">
+      <c r="G232" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H232" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I231" s="6" t="s">
+      <c r="I232" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J231" s="1" t="s">
+      <c r="J232" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K231" s="9" t="s">
+      <c r="K232" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L231" s="9" t="s">
+      <c r="L232" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M231" s="9" t="s">
+      <c r="M232" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N231" s="9" t="s">
+      <c r="N232" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O231" s="9" t="s">
+      <c r="O232" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P231" s="9" t="s">
+      <c r="P232" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q231" s="1" t="s">
+      <c r="Q232" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R231" s="1" t="s">
+      <c r="R232" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S231" s="6" t="s">
+      <c r="S232" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T231" s="1" t="s">
+      <c r="T232" s="1" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="232" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A232" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B232" s="7">
-        <v>1</v>
-      </c>
-      <c r="C232" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D232" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F232" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G232" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K232" s="8"/>
-      <c r="L232" s="8"/>
-      <c r="M232" s="8"/>
-      <c r="N232" s="8"/>
-      <c r="O232" s="8"/>
-      <c r="P232" s="8"/>
-      <c r="T232" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="233" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B233" s="7">
+        <v>1</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F233" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G233" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K233" s="8"/>
+      <c r="L233" s="8"/>
+      <c r="M233" s="8"/>
+      <c r="N233" s="8"/>
+      <c r="O233" s="8"/>
+      <c r="P233" s="8"/>
+      <c r="T233" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A234" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B233" s="7">
+      <c r="B234" s="7">
         <v>0.81</v>
       </c>
-      <c r="C233" s="7" t="s">
+      <c r="C234" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D233" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F233" s="7" t="s">
+      <c r="D234" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F234" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G233" s="7" t="s">
+      <c r="G234" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I233" s="7">
-        <v>2</v>
-      </c>
-      <c r="J233">
-        <f t="shared" ref="J233:J234" si="11">LN(B233)</f>
+      <c r="I234" s="7">
+        <v>2</v>
+      </c>
+      <c r="J234">
+        <f t="shared" ref="J234:J235" si="11">LN(B234)</f>
         <v>-0.21072103131565253</v>
       </c>
-      <c r="K233" s="3">
+      <c r="K234" s="3">
         <v>1.5</v>
       </c>
-      <c r="L233" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M233" s="3">
+      <c r="L234" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M234" s="3">
         <v>1.5</v>
       </c>
-      <c r="N233" s="3">
+      <c r="N234" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O233" s="3">
-        <v>2</v>
-      </c>
-      <c r="P233" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q233">
+      <c r="O234" s="3">
+        <v>2</v>
+      </c>
+      <c r="P234" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q234">
         <v>1.05</v>
       </c>
-      <c r="R233">
-        <f t="shared" ref="R233:R234" si="12">LN(SQRT(EXP(
+      <c r="R234">
+        <f t="shared" ref="R234:R235" si="12">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K233),2)
-+POWER(LN(L233),2)
-+POWER(LN(M233),2)
-+POWER(LN(N233),2)
-+POWER(LN(O233),2)
-+POWER(LN(P233),2)
-+POWER(LN(Q233),2)
++POWER(LN(K234),2)
++POWER(LN(L234),2)
++POWER(LN(M234),2)
++POWER(LN(N234),2)
++POWER(LN(O234),2)
++POWER(LN(P234),2)
++POWER(LN(Q234),2)
 )
 )))</f>
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="234" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A234" s="7" t="s">
+    <row r="235" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A235" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B234" s="7">
+      <c r="B235" s="7">
         <v>0.19</v>
       </c>
-      <c r="C234" s="7" t="s">
+      <c r="C235" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D234" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F234" s="7" t="s">
+      <c r="D235" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F235" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G234" s="7" t="s">
+      <c r="G235" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="I234" s="7">
-        <v>2</v>
-      </c>
-      <c r="J234">
+      <c r="I235" s="7">
+        <v>2</v>
+      </c>
+      <c r="J235">
         <f t="shared" si="11"/>
         <v>-1.6607312068216509</v>
       </c>
-      <c r="K234" s="3">
+      <c r="K235" s="3">
         <v>1.5</v>
       </c>
-      <c r="L234" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M234" s="3">
+      <c r="L235" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M235" s="3">
         <v>1.5</v>
       </c>
-      <c r="N234" s="3">
+      <c r="N235" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O234" s="3">
-        <v>2</v>
-      </c>
-      <c r="P234" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q234">
+      <c r="O235" s="3">
+        <v>2</v>
+      </c>
+      <c r="P235" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q235">
         <v>1.05</v>
       </c>
-      <c r="R234">
+      <c r="R235">
         <f t="shared" si="12"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="235" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K235" s="8"/>
-      <c r="L235" s="8"/>
-      <c r="M235" s="8"/>
-      <c r="N235" s="8"/>
-      <c r="O235" s="8"/>
-      <c r="P235" s="8"/>
+    <row r="236" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K236" s="8"/>
+      <c r="L236" s="8"/>
+      <c r="M236" s="8"/>
+      <c r="N236" s="8"/>
+      <c r="O236" s="8"/>
+      <c r="P236" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T235" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T236" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="B200" r:id="rId1" xr:uid="{370194A6-82FA-1042-84BC-56DCB54BB8D6}"/>
-    <hyperlink ref="B183" r:id="rId2" xr:uid="{72E0EFBC-E286-C544-8A40-7093FA3EB611}"/>
-    <hyperlink ref="B166" r:id="rId3" xr:uid="{BB60DEB9-D357-E441-AAA1-976260D0B6E5}"/>
+    <hyperlink ref="B201" r:id="rId1" xr:uid="{370194A6-82FA-1042-84BC-56DCB54BB8D6}"/>
+    <hyperlink ref="B184" r:id="rId2" xr:uid="{72E0EFBC-E286-C544-8A40-7093FA3EB611}"/>
+    <hyperlink ref="B167" r:id="rId3" xr:uid="{BB60DEB9-D357-E441-AAA1-976260D0B6E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
